--- a/docs/requirements/MOSIP_Admin Requirements.xlsx
+++ b/docs/requirements/MOSIP_Admin Requirements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Partner Management" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="105">
   <si>
     <t>Sr No.</t>
   </si>
@@ -544,9 +544,6 @@
     <t>To register various devices used in the MOSIP eco-system, for registration and authentication – Scope/requirements to be elaborated by Shrikant/Anadi</t>
   </si>
   <si>
-    <t>Setup and Update through Admin Portal with UI</t>
-  </si>
-  <si>
     <t>Kernel - Fetch Device Type, Fetch Device Spec, Create Device, Update Device, Device ID Generator</t>
   </si>
   <si>
@@ -562,9 +559,6 @@
     <t>Kernel - Fetch Machine Type, Fetch Machine Spec, Create Machine, Update Machine, Machine ID Generator</t>
   </si>
   <si>
-    <t>Registrer Centers</t>
-  </si>
-  <si>
     <t>To register various centers used in the MOSIP eco-system, for registration – Scope/requirements to be elaborated by Shrikant/Anadi</t>
   </si>
   <si>
@@ -604,13 +598,7 @@
     <t>To enable a supervisor to approve Master data changes</t>
   </si>
   <si>
-    <t>Will be done through UI</t>
-  </si>
-  <si>
     <t>RID and Stages of Packets</t>
-  </si>
-  <si>
-    <t>To enable an Admin to check the progress of a packet throughout processing based on a packet ID</t>
   </si>
   <si>
     <t>Scope/Acceptance Criteria</t>
@@ -748,6 +736,96 @@
 BLOCK License Key:
 1. Receive a request to Permenently BLOCK a License Key
 2. A blocked key cannot be unblocked</t>
+  </si>
+  <si>
+    <t>One time setup vs. recurring updates TBD</t>
+  </si>
+  <si>
+    <t>Register Centers</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Setup and Update through </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Admin Portal with UI</t>
+    </r>
+  </si>
+  <si>
+    <t>Utility and UI to import through CSV/XLS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Setup and Update through </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Admin Portal with UI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Admin Portal with UI - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TBD</t>
+    </r>
+  </si>
+  <si>
+    <t>To enable an Admin to check the progress of a packet throughout processing based on RID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin Portal with UI </t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>View home page</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>To enable user to Logic</t>
+  </si>
+  <si>
+    <t>To enable user to Logout</t>
+  </si>
+  <si>
+    <t>To enable user to land on Home page and navigate through portal</t>
+  </si>
+  <si>
+    <t>Kernel - Authentication</t>
   </si>
 </sst>
 </file>
@@ -793,7 +871,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -812,8 +890,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1098,7 +1188,22 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1111,17 +1216,32 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -1137,28 +1257,19 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1186,37 +1297,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1235,6 +1324,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1244,35 +1339,50 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1782,8 +1892,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1799,16 +1912,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
@@ -1821,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>2</v>
@@ -1844,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -1866,7 +1979,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>7</v>
@@ -1886,7 +1999,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>31</v>
@@ -1897,7 +2010,7 @@
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="58" x14ac:dyDescent="0.35">
@@ -1908,7 +2021,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>9</v>
@@ -1930,7 +2043,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>12</v>
@@ -1950,19 +2063,19 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>27</v>
@@ -1976,10 +2089,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>36</v>
@@ -1988,7 +2101,7 @@
         <v>26</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I9" s="6"/>
     </row>
@@ -2000,7 +2113,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>34</v>
@@ -2022,7 +2135,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>37</v>
@@ -2046,7 +2159,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>20</v>
@@ -2070,7 +2183,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
@@ -2092,13 +2205,13 @@
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -2112,7 +2225,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>14</v>
@@ -2136,7 +2249,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>15</v>
@@ -2160,7 +2273,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>16</v>
@@ -2171,7 +2284,7 @@
       <c r="G17" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="33"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="9" t="s">
         <v>18</v>
       </c>
@@ -2190,370 +2303,418 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G23"/>
+  <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.453125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="57.54296875" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.453125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="57.54296875" style="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="19" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="18" t="s">
+      <c r="D1" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="21"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="40"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="22" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="28" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="23"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="2:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="28" t="s">
         <v>47</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="23"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="2:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="28" t="s">
         <v>50</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="23"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="2:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="29" t="s">
         <v>53</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="23"/>
+      <c r="G6" s="17" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="28" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="23"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="42"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="22" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="28" t="s">
         <v>57</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="40"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="22" t="s">
+      <c r="B9" s="46"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="28" t="s">
         <v>58</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="23"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="2:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="46"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="46"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="23"/>
-    </row>
-    <row r="11" spans="2:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="40"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="23"/>
-    </row>
-    <row r="12" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="41" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="C14" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="23"/>
-    </row>
-    <row r="13" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="40"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="41" t="s">
+      <c r="E14" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="46"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B16" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="46" t="s">
+      <c r="C16" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="D16" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="23"/>
-    </row>
-    <row r="15" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="40"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="23"/>
-    </row>
-    <row r="16" spans="2:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B16" s="41" t="s">
+      <c r="E16" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="46"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="46" t="s">
+      <c r="C18" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="D18" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="23"/>
-    </row>
-    <row r="17" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="40"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="23"/>
-    </row>
-    <row r="18" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="43" t="s">
+      <c r="E18" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="47"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="46" t="s">
+      <c r="C20" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="D20" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="23"/>
-    </row>
-    <row r="19" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="23"/>
-    </row>
-    <row r="20" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="41" t="s">
+      <c r="E20" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="46"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B22" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="46" t="s">
+      <c r="C22" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="D22" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="23"/>
-    </row>
-    <row r="21" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="40"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="23"/>
-    </row>
-    <row r="22" spans="2:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B22" s="24" t="s">
+      <c r="E22" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B23" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C23" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="23"/>
-    </row>
-    <row r="23" spans="2:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="28" t="s">
+      <c r="D23" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B24" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="31"/>
+      <c r="C24" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="2:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B20:B21"/>
@@ -2561,11 +2722,18 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/docs/requirements/MOSIP_Admin Requirements.xlsx
+++ b/docs/requirements/MOSIP_Admin Requirements.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="104">
   <si>
     <t>Sr No.</t>
   </si>
@@ -490,12 +490,6 @@
     <t>Initial bulk setup of Platform Data through DB</t>
   </si>
   <si>
-    <t>Update/Delete through API - Role Controlled - Using Swagger</t>
-  </si>
-  <si>
-    <t>Kernel - all Mastedata APIs</t>
-  </si>
-  <si>
     <t>ID Definition Setup</t>
   </si>
   <si>
@@ -530,12 +524,6 @@
   </si>
   <si>
     <t>First time Setup - Bulk upload through DB</t>
-  </si>
-  <si>
-    <t>Update through API - Role Controlled - Using Swagger</t>
-  </si>
-  <si>
-    <t>Admin UI from Master Data (V2)</t>
   </si>
   <si>
     <t>Register Devices</t>
@@ -826,6 +814,15 @@
   </si>
   <si>
     <t>Kernel - Authentication</t>
+  </si>
+  <si>
+    <t>MISP Management</t>
+  </si>
+  <si>
+    <t>To enable Admin to Create/Update/Delete/Read MISP and to generate and map License Keys to MISP</t>
+  </si>
+  <si>
+    <t>Admin Portal with UI</t>
   </si>
 </sst>
 </file>
@@ -871,7 +868,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -896,12 +893,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -1269,7 +1260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1298,9 +1289,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1324,38 +1312,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1371,18 +1329,54 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1912,16 +1906,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="32"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
@@ -1934,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>2</v>
@@ -1957,7 +1951,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -1979,7 +1973,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>7</v>
@@ -1999,7 +1993,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>31</v>
@@ -2010,7 +2004,7 @@
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="58" x14ac:dyDescent="0.35">
@@ -2021,7 +2015,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>9</v>
@@ -2043,7 +2037,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>12</v>
@@ -2063,19 +2057,19 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>27</v>
@@ -2089,10 +2083,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>36</v>
@@ -2101,7 +2095,7 @@
         <v>26</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I9" s="6"/>
     </row>
@@ -2113,7 +2107,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>34</v>
@@ -2135,7 +2129,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>37</v>
@@ -2159,7 +2153,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>20</v>
@@ -2183,7 +2177,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
@@ -2205,13 +2199,13 @@
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -2225,7 +2219,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>14</v>
@@ -2249,7 +2243,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>15</v>
@@ -2273,7 +2267,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>16</v>
@@ -2284,7 +2278,7 @@
       <c r="G17" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="25"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="9" t="s">
         <v>18</v>
       </c>
@@ -2303,437 +2297,413 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G26"/>
+  <dimension ref="B1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.453125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="57.54296875" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.453125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="57.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="19" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="37" t="s">
+    <row r="2" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B2" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
-    </row>
-    <row r="3" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="46"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="28" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
+    </row>
+    <row r="3" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="B3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="41" t="s">
         <v>44</v>
       </c>
+      <c r="E3" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="2:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="B4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="29" t="s">
+      <c r="B4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="D4" s="41" t="s">
         <v>47</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>48</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="2:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="B5" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="29" t="s">
+    <row r="5" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="D5" s="41" t="s">
         <v>50</v>
       </c>
+      <c r="E5" s="41" t="s">
+        <v>51</v>
+      </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="2:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B6" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="29" t="s">
+      <c r="G5" s="39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="D6" s="25" t="s">
         <v>53</v>
       </c>
+      <c r="E6" s="40" t="s">
+        <v>54</v>
+      </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="2:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="40" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="46"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="46"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="28" t="s">
+      <c r="F9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>61</v>
-      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="2:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="46"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="4"/>
+    <row r="11" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="34" t="s">
+    <row r="12" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B13" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="D13" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="46"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="4"/>
+      <c r="E13" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="33" t="s">
+    <row r="14" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="49"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B19" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="40" t="s">
         <v>91</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="46"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="2:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B16" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="46"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="47"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="28" t="s">
-        <v>62</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="34" t="s">
+    <row r="20" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B20" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="D20" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="46"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="4"/>
+      <c r="D21" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="2:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B22" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>95</v>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B22" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>93</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="17"/>
     </row>
     <row r="23" spans="2:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B23" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>97</v>
+      <c r="B23" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>93</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="28" t="s">
+    <row r="24" spans="2:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="28" t="s">
+      <c r="D24" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="2:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="21" t="s">
+      <c r="E24" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="23"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
+  <mergeCells count="18">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/docs/requirements/MOSIP_Admin Requirements.xlsx
+++ b/docs/requirements/MOSIP_Admin Requirements.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{03E9B184-14AE-4959-95D2-F4346C87DC44}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9E2BC5CA-71FA-4EB3-8ECB-DB901715CAF1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Requirements" sheetId="3" r:id="rId1"/>
-    <sheet name="Attributes" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="Attributes" sheetId="4" r:id="rId3"/>
+    <sheet name="Proposed User Hierarchy" sheetId="7" r:id="rId4"/>
+    <sheet name="Password Policy" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="145">
   <si>
     <t>Feature</t>
   </si>
@@ -29,9 +32,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>Mode</t>
   </si>
   <si>
@@ -41,21 +41,12 @@
     <t>MOSIP Platform Setup</t>
   </si>
   <si>
-    <t>Setup of MOSIP application data like List of Templates Types, List of Rejection Reasons, etc</t>
-  </si>
-  <si>
-    <t>Initial bulk setup of Platform Data through DB</t>
-  </si>
-  <si>
     <t>ID Definition Setup</t>
   </si>
   <si>
     <t>Setup activity that enables the Country admin to mark attributes that formulate the id for a Country - EG: Demographic data fields, Biometric data capture attributes</t>
   </si>
   <si>
-    <t>Initial Setup/Update through backend</t>
-  </si>
-  <si>
     <t>Configurations Setup</t>
   </si>
   <si>
@@ -71,9 +62,6 @@
     <t xml:space="preserve">Setup activity that enables the Country to mark/turn a process on/off, as relevant </t>
   </si>
   <si>
-    <t>Initial Setup/Update through backend - Solution yet to be identified</t>
-  </si>
-  <si>
     <t>Set up Master Data</t>
   </si>
   <si>
@@ -102,9 +90,6 @@
   </si>
   <si>
     <t>Scope/Acceptance Criteria</t>
-  </si>
-  <si>
-    <t>One time setup vs. recurring updates TBD</t>
   </si>
   <si>
     <r>
@@ -164,77 +149,6 @@
     <t>User Management</t>
   </si>
   <si>
-    <t>First time Setup - Bulk upload through DB
-Utility to import through CSV/XLS</t>
-  </si>
-  <si>
-    <t>Password Management</t>
-  </si>
-  <si>
-    <t>This includes setup of master data like setting up Location Master, Holiday Master, Templates etc</t>
-  </si>
-  <si>
-    <t>User Hierarchy: 
-1. Central Admin: Manage Zonal Admins, Zonal Approvers, MISP Admins
-2. Central Approvers: Approves Created Users                        
-3. Zonal Admin: Manage users like Operators/SPVRs/Center Heads, Device Management, Machine Management, Center Management
-4. Zonal Approvers: Approves Users, Centers, Machines and Devices created by Zonal Admins
-5. Reg. Centre Head: Unblock account for SPVR and Operator
-6. SPVR: EoD Verification
-7. Operator: Registration (New/Update/Lost)</t>
-  </si>
-  <si>
-    <t>Do we need to maintain status for every device "De-Activated/Active/Blocked" or soft-deleting a device can be considered as blocked?</t>
-  </si>
-  <si>
-    <t>Do we need to maintain status for every Machine "De-Activated/Active/Blocked" or soft-deleting a Machine can be considered as blocked?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Data Management, do we need Approvers at both Central and Zonal Level?
-2. Extra Admin for MISP Management will be needed
-Do we need approver for creating MISP 
-3. Why we do not need approval for Update?
-4. Zones needs to be formed from the Hierarchy levels a country uses or do we need to define zones outside hierarchy level
-5. Can user zone be changed? If yes, for officer/supervisor/center head, their center has to be un-mapped first
-6. If VID is an manually revoked, Registration client wil not know about revokation, so how do we handle the packets sent by this particular officer who manually revoked his VID?
-7. Center head will unblock account for Supervisor and Officer. Who will unblock account for Center head, Zonal Admins, Zonal Approvers.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">8. Should there be a feature to whitelist a blacklisted user or is blacklisting permanent
-9. Need to keep a security question as this would be a personaly remembered by User and npt stores in his/her mobile this adds a level of security
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10.Who will nblock account for Central Admin and Central Approver? Should it be auto unblock after a time period?</t>
-    </r>
-  </si>
-  <si>
-    <t>Should we provide functionality to delete a mapping?
-Note: This will be a soft-delete</t>
-  </si>
-  <si>
-    <t>1. Should we provide functionality to delete a mapping?
-Note: This will be a soft-delete
-2. Should user receive a notification from MOSIP if his/her zone por center is changed?</t>
-  </si>
-  <si>
     <t>Should inactivity period be configurable?</t>
   </si>
   <si>
@@ -331,9 +245,6 @@
     <t>Center - User Mapping Management</t>
   </si>
   <si>
-    <t>Supervisor Approval Management</t>
-  </si>
-  <si>
     <t>Login Page</t>
   </si>
   <si>
@@ -343,41 +254,9 @@
     <t>View Home Page</t>
   </si>
   <si>
-    <t>Password Policy:
-1. Use of both upper-case and lower-case letters atleast once
-2. Use of atleast one numerical digit
-3. Use of alteast one of the special characters, such as @, #, $
-4. Restriction on passwords with words found in the User Name and Emaid ID
-5. Should not match last three old passwords</t>
-  </si>
-  <si>
     <t>Sub-Feature</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. To enable user to Login In through Username and Password.
-2. Will also contain link to Forgot Password page (Explained in Password management section)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>How about Forgot UN?</t>
-    </r>
-  </si>
-  <si>
-    <t>1. To enable user to Logout
-2, User will be Auto logged out after certain time of inactivity.</t>
-  </si>
-  <si>
-    <t>Efforts</t>
-  </si>
-  <si>
     <t>Users</t>
   </si>
   <si>
@@ -391,112 +270,6 @@
   </si>
   <si>
     <t>VID</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Admin to register a User by giving required details:  Refer "Attributes" sheet
-2. User Name to be Auto Generated as per below options:
-     a) name+surname (if duplicate exists, add 2 as suffix, increment count if duplicate found again)
-     b) name (if only name exists) (if duplicate exists, add 2 at suffix, increment count if duplicate found again)
-            OR
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">     a) Email will be considered as the User Name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3. Map user to a zone (Zone to be from Location hierarchy) (Not in case of MISP Admins)
-4. Send activation link to the user along with User Name
-5. Seting up password by user
-     a) User clicks on activation link
-     b) User inputs user name
-     c) User enters password
-     d) User confirms password by entering again
-     e) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User selects a security question and an answer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>will be one criteria to use the forgot password feature</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)
-     f) User receives OTP on registered mobile number
-     g) User enters OTP and submits
-     h) Message displays, "Account Activated". 
-6. User can start using this account by going to Reg. Client/Admin portal as applicable and logging in by giving username and password
-User Management will also include Temporary Blocking, Unblocking and Blacklisting a User
-A user entering wrong password for 3 times </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(configurable)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> will get blocked and can only be unblocked by a superior admin</t>
-    </r>
   </si>
   <si>
     <r>
@@ -587,16 +360,7 @@
         1. Doc Upload turned off in Reg. Client but turned on in Reg. Processor will be identified as a conflict</t>
   </si>
   <si>
-    <t>1. To enable user to land on Home page and navigate through portal
-2. Will comprise of options to navigate to User permitted functionalities
-3  Will comprise of options for Password Management, Profile Management (Update his personal details)</t>
-  </si>
-  <si>
     <t>UIN Activation/Deactivation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To enable an Admin to De-Activate or Re-Activate a UIN
-This feature will also de-activate or re-activate coresponding VIDs </t>
   </si>
   <si>
     <t>1. Creation of Devices on Admin portal based on zones
@@ -687,22 +451,223 @@
     </r>
   </si>
   <si>
+    <t>Registration Center Type</t>
+  </si>
+  <si>
+    <t>For CNIE, Social Registry, ABIS</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To enable an Admin to De-Activate or Re-Activate a UIN : Change status
+This feature will also de-activate or re-activate coresponding VIDs </t>
+  </si>
+  <si>
+    <t>Partner ID Generator</t>
+  </si>
+  <si>
+    <t>Platfrom Setup</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>Setup of MOSIP application data like List of Templates Types, List of Rejection Reasons, etc through a CSV</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Schema Validator to validate the ID schema</t>
+  </si>
+  <si>
+    <t>Initial Setup/Update through Server</t>
+  </si>
+  <si>
+    <t>Intitial Setup of Master data through Utility</t>
+  </si>
+  <si>
+    <t>This includes setup of master data like setting up Location Master, Holiday Master, Templates, Zones etc</t>
+  </si>
+  <si>
+    <t>Validation of Configuration File using Config Validator v1.5
+Warning on change of Configuration to Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial bulk setup of Platform Data through CSV upload Utility </t>
+  </si>
+  <si>
+    <t>Initial Setup/Update through backend using CSV upload Utility</t>
+  </si>
+  <si>
+    <t>For v1.5: 
+        1. Config Validator for Processes
+        2. Warning on change of Configuration to Admin</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>Process Flow Configuration UI out of scope</t>
+  </si>
+  <si>
+    <t>Configuration Setup and Update UI out of scope</t>
+  </si>
+  <si>
+    <t>1. To enable user to Logout
+2. User will be Auto logged out after certain time of inactivity.</t>
+  </si>
+  <si>
+    <t>User Registration</t>
+  </si>
+  <si>
+    <t>Account Management</t>
+  </si>
+  <si>
+    <t>Can country have a policy for Log-in with only Bio and no password
+If the country only configures Biometric for logging in? What should be the policy for locking the account?
+How should the unlock happen since only Bio Log-in will eliminate Reset/password Policy</t>
+  </si>
+  <si>
+    <t>1. To enable user to land on Home page and navigate through portal
+2. Will comprise of options to navigate to User permitted functionalities
+3  Will comprise of options for Profile Management (Update his personal details, Account management)</t>
+  </si>
+  <si>
+    <t>Password Policy</t>
+  </si>
+  <si>
+    <t>1. Use of both upper-case and lower-case letters atleast once
+2. Use of atleast one numerical digit
+3. Use of alteast one of the special characters, such as @, #, $
+4. Restriction on passwords with words found in the User Name and Emaid ID
+5. Should not match last three old passwords
+6. Minimum character length should be 8</t>
+  </si>
+  <si>
+    <t>User Registration Approval</t>
+  </si>
+  <si>
+    <t>Admin UI</t>
+  </si>
+  <si>
+    <t>Can this approval workflow change? Like 1 or multi-step approval process?
+Workflow engine?
+If we go with the Zonal Admin Approach?
+Zonal Approvals?</t>
+  </si>
+  <si>
+    <t>Admin with UI
+Only when User is online</t>
+  </si>
+  <si>
+    <t>1. Central Admin: Manage Zonal Admins, Zonal Approvers, MISP Admins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Central Approvers: Approves Created Users                        </t>
+  </si>
+  <si>
+    <t>3. Zonal Admin: Manage users like Operators/SPVRs/Center Heads, Device Management, Machine Management, Center Management</t>
+  </si>
+  <si>
+    <t>4. Zonal Approvers: Approves Users, Centers, Machines and Devices created by Zonal Admins</t>
+  </si>
+  <si>
+    <t>5. Reg. Centre Head: Unblock account for SPVR and Operator</t>
+  </si>
+  <si>
+    <t>6. SPVR: EoD Verification</t>
+  </si>
+  <si>
+    <t>7. Operator: Registration (New/Update/Lost)</t>
+  </si>
+  <si>
+    <t>Note: Maker and Checker Cannot be same person
+           Update should have approval process
+           System should be flexible enough to map permissions to roles as per the preference of the country - TBD with JOHN</t>
+  </si>
+  <si>
+    <t>Sample User Hierarchy</t>
+  </si>
+  <si>
+    <t>1. For addition of MISP, do we need approver?
+2. Do we create roles for each functionality? Or do we go with the structure currently decided? "Refer proposed user hierarchy"</t>
+  </si>
+  <si>
+    <t>1. To enable user to Login In through Username and Password.
+2. Along with Password, Multifactor Authentiation will be applicable as configured by the country
+3. Putting wrong password/biometric for more than 3 times will lock the account
+4. Will also contain link to Forgot Password page (Explained in Password management section) and unblocking an account
+5. A user entering wrong password for 3 times (configurable) will get locked and can only be unlocked by a superior admin if Bio Auth not available/by the user if Bio auth is avialable. "Refer Account Management" Feature</t>
+  </si>
+  <si>
+    <t>Forgot Username</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>Reset Password</t>
+  </si>
+  <si>
+    <t>Account Unblocking</t>
+  </si>
+  <si>
+    <t>User 
+Unblocking/Blacklisting/Whitelisting/
+De-Activating/Activating/Reseting Password/Sending Username</t>
+  </si>
+  <si>
+    <t>Reset password (Would support Multi Factor Auth - Configurable by the country) (Only OTP auth if requested through Admin)
+     a) User clicks on Forgot passsword link on Reg. Client Login page/Admin portal Login page
+     b) User inputs user name
+     c) User enters new password
+     d) User confirms new password by entering again
+     e) User generates OTP on registered mobile number
+     f) User puts OTP and submits
+     g) Message displays, "Password Upated". 
+     h) User can go to portal to login with new password</t>
+  </si>
+  <si>
+    <t>1. A superior Admin can Blacklist/Whitelist a User
+2. A superior Admin can De-Activate/Activate a User
+3. If a user blocks his/her account, a superior Admin can unblock a users account if contacted by the User. "Refer Login Page Section"
+4. If a user wants to reset his/her password and Bio auth is not possible, a superior admin will be able to reset password 
+      - A reset password link will be sent to the user on phone number and email
+5. if a user wants to retrieve his/her username and Bio Auth is not possible, a superior admin will be able to send username to the user
+      - User will receive a link with his/her username</t>
+  </si>
+  <si>
+    <t>Forgot Username (Would support Multi Factor Auth - Configurable by the country) (Only OTP auth if requested through Admin)
+     a) User clicks on Forgot Username link on Reg. Client Login page/Admin portal Login page
+     b) User enters his mobile number 
+     c) System checks if mobile number is registered or not
+     d) User does OTP Auth
+     e) System sends SMS notification with User Name</t>
+  </si>
+  <si>
+    <t>Account unblocking (Would support Multi Factor Auth - Configurable by the country) (Only OTP auth if requested through Admin)
+     a) User navigates to Login page
+     b) User clicks on "Unblock account page"
+     c) User enters his mobile number 
+     d) System checks if mobile number is registered or not
+     e) User does OTP Auth
+     f) System sends SMS notification with User Name</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Password Management will include following Features:
-1. Change password (Will include OTP Auth)
-    a) User to select Change Password option from Reg. Client/Admin portal 
-    b) Navigates to the PW Management page &gt; User to provide Old and New PW &gt; Authenticate with OTP (User has to be online)
-</t>
+      <t>Change password (</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">    c) Should we allow changing PW in an offline mode?</t>
+      <t>Would support Multi Factor Auth - Configurable by the country</t>
     </r>
     <r>
       <rPr>
@@ -712,13 +677,127 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-2. Forgot password
-     a) User clicks on Forgot passsword link on Reg. Client Login page/Admin portal Login page
-     b) User inputs user name
-     c) User enters new password
-     d) User confirms new password by entering again
-    </t>
+      <t>)
+    a) User to select Change Password option from Reg. Client/Admin portal 
+    b) Navigates to the PW Management page &gt; User to provide Old and New PW &gt; Authenticate with OTP (User has to be online)</t>
+    </r>
+  </si>
+  <si>
+    <t>Configuration Fetcher : To view configuration on UI Screen</t>
+  </si>
+  <si>
+    <t>Do we need this feature? What priority?</t>
+  </si>
+  <si>
+    <t>Blacklisting/Whitelisting/De-Activating/Activating will require Approval 
+No bulk operation through UI, only one-by-one
+If we deactivate a user, we will deactivate all the related mappings?
+While activating, manual activation of mappings has to be done</t>
+  </si>
+  <si>
+    <t>Asset Management</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Creation of Center on Admin portal based on zones
+    a) Zonal admin will select a Center Type  the new Center belongs to. (Center type can be "Regular", "Handicapped Firendly", "Child Frieldly" etc)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a) Zonal admin will input required details for the new Center. (Refer Attributes Sheet)
+    b) Center will get mapped to Admin's Zone
+2. Update Center related details
+   a) Zonal admin will be able to update Center related details in DB
+3. Update Zone of a Center  (If a Center is being moved to a new zone or accidently assigned to a wrong zone)
+    a) Zonal admin will have to un-map Users, Machines and Devices mapped to that Center
+    B) Zonal admin will assign the Center to the new zone
+    c) The Center won't be visible to the Zonal admin of the previously assigned zone
+    d) In case of accidently assigning the wrong zone, Zonal Admin will have to get in touch with the Zonal admin of newly assinged zone to get the Center re-assigned to the old zone
+4. De-Activating/Re-Activating/De-commissioning a Center
+    a) Zonal Admin can De-Activate/Re-Activate a Center - Status will be "Inactive"
+    b) Zonal Admin can De-Activate/Re-Activate Center from his/her zone only - Status will be "Active"
+    c) Zonal Admin can De-Commision a Registration Center of his Zone which is in his zone.     c) Zonal Admin can De-Commision a Registration Center of his Zone which is in his zone. All the respective mappings will be de-activated
+5. History will be maintained in the DB for all the updates in the Center Details</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Creation of Machine on Admin portal based on zones
+    a) Zonal admin will select a Machine Type and Machine Specification for the new Machine
+    b) Zonal admin will input required details for the new Machine. (Refer Attributes sheet)
+    c) Device will get mapped to Admin's Zone
+    d) Admin will map the Machine to a Center existing in the Admin's Zone
+    e) Mevice uniqeness will be maintained through Serial Number
+2. Update Machine related details
+   a) Zonal admin will be able to update Machine related details in DB (E.g Serial Number, Mac-Address)
+3. Update Zone of a Machine  (If a Machine is being moved to a new zone or accidently assigned to a wrong zone)
+    a) Zonal admin will remove the mapping of the Center and Machine  (if already mapped to a Center of another zone)
+    b) Zonal admin will assign the Machine to the new zone
+    c) The device won't be visible to the Zonal admin of the previously assigned zone
+    d) In case of accidently assigning the wrong zone, Zonal Admin will have to get in touch with the Zonal admin of newly assinged zone to get the Machine re-assigned to the old zone
+    e) The Machine needs to be remapped to a new Center once the new zone has been assigned
+4. De-Activating/Re-Activating/De-commissioning a Machine
+    a) Zonal Admin can De-Activate/Re-Activate a Machine - Status will be "Inactive"
+    b) Zonal Admin can De-Activate/Re-Activate Machines from his/her zone only - Status will be "Active"
+    c) Zonal Admin can De-Commision a Machine of his Zone which is in his zone.  All the respective mappings will be 
+de-activated
+5. History will be maintained in the DB for all the updates in the Machine Details</t>
+  </si>
+  <si>
+    <t>1. Creation of Devices on Admin portal based on zones
+    a) Zonal admin will select a Device Type and Device Specification the new Device belongs to
+    b) Zonal admin will input required details for the new Device (Refer Attributes Sheet)
+    c) Device will get mapped to Admin's Zone
+    d) Admin will map the Device to a Center existing in the Admin's Zone
+    e) Device uniqeness will be maintained through Serial Number
+2. Update Device related details
+   a) Zonal admin will be able to update Device related details in DB (E.g Serial Number, Mac-Address)
+3. Update Zone of a Device (If a Device is being moved to a new zone or accidently assigned to a wrong zone)
+    a) Zonal admin will remove the mapping of the Center and Device (if already mapped to a Center of another zone)
+    b) Zonal admin will assign the Device to the new zone
+    c) The Device won't be visible to the Zonal admin of the previously assigned zone
+    d) In case of accidently assigning the wrong zone, Zonal Admin will have to get in touch with the Zonal admin of newly assinged zone to get the device re-assigned to the old zone
+    e) The Device needs to be remapped to a new Center once the new zone has been assigned
+4. De-Activating/Re-Activating/De-commissioning a Device
+    a) Zonal Admin can De-Activate/Re-Activate a Device - Status will be "Inactive"
+    b) Zonal Admin can De-Activate/Re-Activate Devices from his/her zone only - Status will be "Active"
+    c) Zonal Admin can De-Commision a Device of his Zone which is in his/her zone. All the respective mappings will be 
+de-activated
+5. History will be maintained in the DB for all the updates in the Device Details</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Admin to register a User by giving required details:  Refer "Attributes" sheet
+2. Admin will enter the Username as per the pattern decided by the country
+3. Map user to a Administrative Geographical Hierarchy
+4. Send activation link to the user along with User Name on Phone Number and Email
+5. Seting up password by user
+     a) User clicks on activation link &gt; User enters VID for validation
+     b) User enters mobine number &gt; Receives OTP on registered number &gt; User enters OTP and Submits
+     b) System validates UIN
+     c) System performs Demo Auth
+     d) System checks if User is Child or Adult
+     e) If auth successfull, system enables field to enter password
+     f) User enters password &gt; User re-enters password
+     g) System generates Token ID using Admin's Partner ID and map it to the User  
+     h) User receives a Notification with Username and link to the portal on Phone number and Email
+6. User can start using this account by going to Reg. Client/Admin portal as applicable and logging in by giving username and  password </t>
     </r>
     <r>
       <rPr>
@@ -729,7 +808,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> e) User enters security answer setup during first time setup</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multi-factor login supported</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
     </r>
     <r>
       <rPr>
@@ -739,25 +840,56 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-     e) User generates OTP on registered mobile number
-     f) User puts OTP and submits
-     g) Message displays, "Password Upated". 
-     h) User can go to portal to login with new password
-3. Forgot Username
-     a) User clicks on Forgot Username link on Reg. Client Login page/Admin portal Login page
-     b) User enters his number 
-     c) System checks if mobile number is registered or not
-     d) System sends SMS notification with User Name
-4. Forgot Password and Security Answer
-    a) User has to contact his/her Superior Admin to reset password
-    b) Admin logs on Admin Portal &gt; Clicks on Reset Password for User
-    c) System sends Reset password Link to user's registered mobile number
-    d) User follows the same process as New Password Setup</t>
+      <t>If activation link expires</t>
     </r>
-  </si>
-  <si>
-    <t>Registration Center Type</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (expiry time configurable)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, resend the link through a batch process</t>
+    </r>
+  </si>
+  <si>
+    <t>Asset Approval Management</t>
+  </si>
+  <si>
+    <t>UIN Flagging (Needs more Analysis)</t>
+  </si>
+  <si>
+    <t>1.An Admin (Approver) will approve the Users created by the Admin
+2. The Admin creating the Users cannot be same as the Approver
+3. If the admin does not approve for a certain period of time
+     a) Remainder Notifications (How many?)
+     b) Change the approver (what happens if we have only one zonal approver for that zone)
+     c) Auto-Approve
+     d) Reject
+     e) Escalation Mail
+     f) Reports</t>
+  </si>
+  <si>
+    <t>1. Zones created by Country should be at a common geographical level, else the zones will overlap.
+Will country manage this overlapping of zones or do we restrict overlapping of zones?
+2. For Devices and Machine, Do we need zones since mapping them to a center will indirectly map them to a center?
+If no, any admin can view all devices/machines since there will be no zonal filters available and no way to restrict access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Should user receive a notification from MOSIP if his/her zone or center is changed?</t>
   </si>
 </sst>
 </file>
@@ -797,13 +929,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
@@ -825,8 +950,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -839,14 +971,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1017,21 +1143,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1110,22 +1221,166 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1149,91 +1404,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1516,507 +1837,653 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="110.26953125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="57.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.453125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="52.81640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.1796875" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.90625" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="110.26953125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="57.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.453125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="52.81640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="2:9" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="62"/>
+      <c r="C3" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="56"/>
+      <c r="E3" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="62"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="62"/>
+      <c r="C5" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B6" s="62"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="62"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="62"/>
+      <c r="C8" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="51"/>
+      <c r="E8" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="2:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="B9" s="62"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="62"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="70"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="63"/>
+      <c r="C11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="2:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="B12" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="E12" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="28" t="s">
+      <c r="G12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B13" s="62"/>
+      <c r="C13" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="63"/>
+      <c r="C14" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="2:9" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="2:9" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="62"/>
+      <c r="C16" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="63"/>
+      <c r="C17" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="B18" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="62"/>
+      <c r="C19" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="47"/>
+    </row>
+    <row r="20" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="B20" s="62"/>
+      <c r="C20" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="47"/>
+    </row>
+    <row r="21" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="63"/>
+      <c r="C21" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="47"/>
+    </row>
+    <row r="22" spans="1:9" ht="140" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="60"/>
+      <c r="B22" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="45"/>
+      <c r="E22" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="34"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="46" t="s">
+      <c r="H22" s="54" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="133" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="60"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="55"/>
+    </row>
+    <row r="24" spans="1:9" ht="137.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="60"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="45"/>
+      <c r="E24" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" ht="148" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="60"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="27" t="s">
+      <c r="G25" s="1"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="1:9" ht="145" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="62"/>
+      <c r="C26" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="45"/>
+      <c r="E26" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="42"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="31" t="s">
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="1:9" ht="151.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="62"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="1:9" ht="73" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="62"/>
+      <c r="C28" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="44"/>
+      <c r="E28" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="34"/>
-    </row>
-    <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="27" t="s">
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="1:9" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="62"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="30"/>
+    </row>
+    <row r="30" spans="1:9" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="62"/>
+      <c r="C30" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="44"/>
+      <c r="E30" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="1:9" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="62"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="30"/>
+    </row>
+    <row r="32" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="62"/>
+      <c r="C32" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="44"/>
+      <c r="E32" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="62"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="B34" s="63"/>
+      <c r="C34" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B35" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="45"/>
+      <c r="E35" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B36" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="45"/>
+      <c r="E36" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="34"/>
-    </row>
-    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="B9" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="27" t="s">
+      <c r="F36" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B37" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="45"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="34"/>
-    </row>
-    <row r="11" spans="1:8" ht="349.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" ht="166.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="42"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" ht="154" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="7" t="s">
+      <c r="C38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:8" ht="362.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:8" ht="166" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="47"/>
-      <c r="B15" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="34"/>
-    </row>
-    <row r="16" spans="1:8" ht="159" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="47"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="163.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="47"/>
-      <c r="B17" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="34"/>
-    </row>
-    <row r="18" spans="1:7" ht="173" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="47"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="145" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="184" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="42"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="34"/>
-    </row>
-    <row r="21" spans="1:7" ht="73" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="34"/>
-    </row>
-    <row r="22" spans="1:7" ht="85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="79" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="34"/>
-    </row>
-    <row r="24" spans="1:7" ht="95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="41"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="34"/>
-    </row>
-    <row r="26" spans="1:7" ht="105.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="B27" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="34"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="34"/>
-    </row>
-    <row r="29" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="36"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
+  <mergeCells count="30">
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B22:B34"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2024,11 +2491,59 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3D3362-D981-44F6-8178-C89D82D995F2}">
+  <dimension ref="C4:C11"/>
+  <sheetViews>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C4" s="68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C5" s="68"/>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C7" s="68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C8" s="68"/>
+    </row>
+    <row r="10" spans="3:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C11" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C10:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B68E2A9-6174-4603-98EA-94EE46FC7103}">
-  <dimension ref="B1:D41"/>
+  <dimension ref="B1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2039,183 +2554,286 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="24" t="s">
-        <v>86</v>
+      <c r="B2" s="19" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="23" t="s">
-        <v>87</v>
+      <c r="B3" s="18" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="21" t="s">
-        <v>88</v>
+      <c r="B4" s="16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="2:2" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B27" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="21" t="s">
+    <row r="35" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="36" spans="2:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B36" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B38" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="21" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="21" t="s">
+    <row r="42" spans="2:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="20"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="26" spans="2:2" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B27" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B28" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B29" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B30" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B31" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="35" spans="2:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B35" s="25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B40" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="22" t="s">
-        <v>67</v>
-      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C670344E-9E84-453F-8A33-80676A3A476F}">
+  <dimension ref="B1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="113.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964681BE-D7B4-4546-8D52-B319A23BFA4E}">
+  <dimension ref="B1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="51.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/requirements/MOSIP_Admin Requirements.xlsx
+++ b/docs/requirements/MOSIP_Admin Requirements.xlsx
@@ -3,16 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9E2BC5CA-71FA-4EB3-8ECB-DB901715CAF1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EAFAA352-5A7E-45B8-91C7-3AB068C56ECF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Requirements" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
-    <sheet name="Attributes" sheetId="4" r:id="rId3"/>
-    <sheet name="Proposed User Hierarchy" sheetId="7" r:id="rId4"/>
-    <sheet name="Password Policy" sheetId="6" r:id="rId5"/>
+    <sheet name="Attributes" sheetId="4" r:id="rId2"/>
+    <sheet name="Proposed User Hierarchy" sheetId="7" r:id="rId3"/>
+    <sheet name="Password Policy" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="141">
   <si>
     <t>Feature</t>
   </si>
@@ -147,9 +146,6 @@
   </si>
   <si>
     <t>User Management</t>
-  </si>
-  <si>
-    <t>Should inactivity period be configurable?</t>
   </si>
   <si>
     <t>Machine</t>
@@ -363,94 +359,6 @@
     <t>UIN Activation/Deactivation</t>
   </si>
   <si>
-    <t>1. Creation of Devices on Admin portal based on zones
-    a) Zonal admin will select a Device Type and Device Specification the new Device belongs to
-    b) Zonal admin will input required details for the new Device (Refer Attributes Sheet)
-    c) Device will get mapped to Admin's Zone
-    d) Admin will map the Device to a Center existing in the Admin's Zone
-    e) Device uniqeness will be maintained through Serial Number
-2. Update Device related details
-   a) Zonal admin will be able to update Device related details in DB (E.g Serial Number, Mac-Address)
-3. Update Zone of a Device (If a Device is being moved to a new zone or accidently assigned to a wrong zone)
-    a) Zonal admin will remove the mapping of the Center and Device (if already mapped to a Center of another zone)
-    b) Zonal admin will assign the Device to the new zone
-    c) The Device won't be visible to the Zonal admin of the previously assigned zone
-    d) In case of accidently assigning the wrong zone, Zonal Admin will have to get in touch with the Zonal admin of newly assinged zone to get the device re-assigned to the old zone
-    e) The Device needs to be remapped to a new Center once the new zone has been assigned
-4. De-Activating/Re-Activating a Device
-    a) Zonal Admin can De-Activate/Re-Activate a Device - Status will be "Inactive"
-    b) Zonal Admin can De-Activate/Re-Activate Devices from his/her zone only - Status will be "Active"
-5. Deleting a Device
-    a) Zonal admin can delete a Device
-    b) This will be soft delete in the DB and will be enquivalent to a block Device feature since we won't provide any feature to Re-Register a Device
-6. History will be maintained in the DB for all the updates in the Device Details</t>
-  </si>
-  <si>
-    <t>1. Creation of Machine on Admin portal based on zones
-    a) Zonal admin will select a Machine Type and Machine Specification for the new Machine
-    b) Zonal admin will input required details for the new Machine. (Refer Attributes sheet)
-    c) Device will get mapped to Admin's Zone
-    d) Admin will map the Machine to a Center existing in the Admin's Zone
-    e) Mevice uniqeness will be maintained through Serial Number
-2. Update Machine related details
-   a) Zonal admin will be able to update Machine related details in DB (E.g Serial Number, Mac-Address)
-3. Update Zone of a Machine  (If a Machine is being moved to a new zone or accidently assigned to a wrong zone)
-    a) Zonal admin will remove the mapping of the Center and Machine  (if already mapped to a Center of another zone)
-    b) Zonal admin will assign the Machine to the new zone
-    c) The device won't be visible to the Zonal admin of the previously assigned zone
-    d) In case of accidently assigning the wrong zone, Zonal Admin will have to get in touch with the Zonal admin of newly assinged zone to get the Machine re-assigned to the old zone
-    e) The Machine needs to be remapped to a new Center once the new zone has been assigned
-4. De-Activating/Re-Activating a Machine
-    a) Zonal Admin can De-Activate/Re-Activate a Machine - Status will be "Inactive"
-    b) Zonal Admin can De-Activate/Re-Activate Machines from his/her zone only - Status will be "Active"
-5. Deleting a Machine
-    a) Zonal admin can delete a Machine
-    b) This will be soft delete in the DB and will be enquivalent to a block Machine feature since we won't provide any feature to Re-Register a Machine
-6. History will be maintained in the DB for all the updates in the Machine Details</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Creation of Center on Admin portal based on zones
-    a) Zonal admin will select a Center Type  the new Center belongs to. (Center type can be "Regular", "Handicapped Firendly", "Child Frieldly" etc)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a) Zonal admin will input required details for the new Center. (Refer Attributes Sheet)
-    b) Center will get mapped to Admin's Zone
-2. Update Center related details
-   a) Zonal admin will be able to update Center related details in DB
-3. Update Zone of a Center  (If a Center is being moved to a new zone or accidently assigned to a wrong zone)
-    a) Zonal admin will have to un-map Users, Machines and Devices mapped to that Center
-    a) Zonal admin will assign the Center to the new zone
-    b) The Center won't be visible to the Zonal admin of the previously assigned zone
-    c) In case of accidently assigning the wrong zone, Zonal Admin will have to get in touch with the Zonal admin of newly assinged zone to get the Center re-assigned to the old zone
-4. De-Activating/Re-Activating a Center
-    a) Zonal Admin can De-Activate/Re-Activate a Center - Status will be "Inactive"
-    b) Zonal Admin can De-Activate/Re-Activate Center from his/her zone only - Status will be "Active"
-5. Deleting a Center
-    a) Zonal admin can delete a Center
-    b) This will be soft delete in the DB and will be enquivalent to a block Center feature since we won't provide any feature to Re-Register a Center
-6. History will be maintained in the DB for all the updates in the Center Details</t>
-    </r>
-  </si>
-  <si>
     <t>Registration Center Type</t>
   </si>
   <si>
@@ -513,10 +421,6 @@
   </si>
   <si>
     <t>Configuration Setup and Update UI out of scope</t>
-  </si>
-  <si>
-    <t>1. To enable user to Logout
-2. User will be Auto logged out after certain time of inactivity.</t>
   </si>
   <si>
     <t>User Registration</t>
@@ -890,6 +794,10 @@
   <si>
     <t xml:space="preserve">
 1. Should user receive a notification from MOSIP if his/her zone or center is changed?</t>
+  </si>
+  <si>
+    <t>1. To enable user to Logout
+2. User will be Auto logged out after certain time of inactivity (Period of inactivity:  Configurable).</t>
   </si>
 </sst>
 </file>
@@ -1482,79 +1390,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1840,10 +1748,10 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N33" sqref="N33"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1863,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>21</v>
@@ -1881,59 +1789,59 @@
         <v>1</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="61" t="s">
-        <v>85</v>
+      <c r="B2" s="62" t="s">
+        <v>81</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="32"/>
       <c r="E2" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="22"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="62"/>
-      <c r="C3" s="64" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="48" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="57" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="23"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="62"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="45" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="23"/>
     </row>
     <row r="5" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="62"/>
-      <c r="C5" s="51" t="s">
+      <c r="B5" s="50"/>
+      <c r="C5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="48" t="s">
+      <c r="D5" s="59"/>
+      <c r="E5" s="57" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="45" t="s">
@@ -1943,95 +1851,95 @@
       <c r="H5" s="23"/>
     </row>
     <row r="6" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B6" s="62"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="44" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="23" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="62"/>
-      <c r="C7" s="53"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="50"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="44" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="23" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="62"/>
-      <c r="C8" s="51" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="48" t="s">
+      <c r="D8" s="65"/>
+      <c r="E8" s="57" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="2:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="B9" s="62"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="49"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="68"/>
       <c r="F9" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="69" t="s">
-        <v>98</v>
+      <c r="H9" s="71" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="62"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="44" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="70"/>
+      <c r="H10" s="72"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="63"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="23"/>
     </row>
     <row r="12" spans="2:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="B12" s="66" t="s">
-        <v>97</v>
+      <c r="B12" s="49" t="s">
+        <v>93</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="44" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F12" s="45" t="s">
         <v>26</v>
@@ -2040,34 +1948,32 @@
         <v>27</v>
       </c>
       <c r="H12" s="47" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B13" s="62"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="45"/>
       <c r="E13" s="44" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="F13" s="45" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="43" t="s">
-        <v>30</v>
-      </c>
+      <c r="H13" s="43"/>
     </row>
     <row r="14" spans="2:9" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="63"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="45"/>
       <c r="E14" s="44" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F14" s="45" t="s">
         <v>26</v>
@@ -2076,136 +1982,136 @@
       <c r="H14" s="23"/>
     </row>
     <row r="15" spans="2:9" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="49" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F15" s="44" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="30" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="2:9" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="62"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="31" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="30" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="63"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="37" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="30" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="B18" s="66" t="s">
-        <v>102</v>
+      <c r="B18" s="49" t="s">
+        <v>97</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="47" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="62"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="47"/>
     </row>
     <row r="20" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="B20" s="62"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="47"/>
     </row>
     <row r="21" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="63"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:9" ht="140" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="60"/>
-      <c r="B22" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="67" t="s">
-        <v>58</v>
+      <c r="A22" s="61"/>
+      <c r="B22" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>57</v>
       </c>
       <c r="D22" s="45"/>
-      <c r="E22" s="48" t="s">
-        <v>136</v>
+      <c r="E22" s="57" t="s">
+        <v>131</v>
       </c>
       <c r="F22" s="45" t="s">
         <v>22</v>
@@ -2213,31 +2119,31 @@
       <c r="G22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="54" t="s">
-        <v>143</v>
+      <c r="H22" s="69" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="133" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="60"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="67"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="45"/>
-      <c r="E23" s="50"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="45" t="s">
         <v>23</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="55"/>
+      <c r="H23" s="70"/>
     </row>
     <row r="24" spans="1:9" ht="137.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="60"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="67" t="s">
-        <v>57</v>
+      <c r="A24" s="61"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="54" t="s">
+        <v>56</v>
       </c>
       <c r="D24" s="45"/>
-      <c r="E24" s="68" t="s">
-        <v>137</v>
+      <c r="E24" s="52" t="s">
+        <v>132</v>
       </c>
       <c r="F24" s="45" t="s">
         <v>24</v>
@@ -2248,11 +2154,11 @@
       <c r="H24" s="23"/>
     </row>
     <row r="25" spans="1:9" ht="148" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="60"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="67"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="45"/>
-      <c r="E25" s="68"/>
+      <c r="E25" s="52"/>
       <c r="F25" s="45" t="s">
         <v>14</v>
       </c>
@@ -2260,13 +2166,13 @@
       <c r="H25" s="24"/>
     </row>
     <row r="26" spans="1:9" ht="145" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="62"/>
-      <c r="C26" s="67" t="s">
-        <v>56</v>
+      <c r="B26" s="50"/>
+      <c r="C26" s="54" t="s">
+        <v>55</v>
       </c>
       <c r="D26" s="45"/>
-      <c r="E26" s="68" t="s">
-        <v>138</v>
+      <c r="E26" s="52" t="s">
+        <v>133</v>
       </c>
       <c r="F26" s="45" t="s">
         <v>24</v>
@@ -2277,10 +2183,10 @@
       <c r="H26" s="24"/>
     </row>
     <row r="27" spans="1:9" ht="151.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="62"/>
-      <c r="C27" s="67"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="45"/>
-      <c r="E27" s="68"/>
+      <c r="E27" s="52"/>
       <c r="F27" s="45" t="s">
         <v>14</v>
       </c>
@@ -2288,13 +2194,13 @@
       <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:9" ht="73" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="62"/>
-      <c r="C28" s="68" t="s">
-        <v>59</v>
+      <c r="B28" s="50"/>
+      <c r="C28" s="52" t="s">
+        <v>58</v>
       </c>
       <c r="D28" s="44"/>
-      <c r="E28" s="71" t="s">
-        <v>71</v>
+      <c r="E28" s="53" t="s">
+        <v>70</v>
       </c>
       <c r="F28" s="45" t="s">
         <v>24</v>
@@ -2305,10 +2211,10 @@
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:9" ht="85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="62"/>
-      <c r="C29" s="68"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="44"/>
-      <c r="E29" s="71"/>
+      <c r="E29" s="53"/>
       <c r="F29" s="45" t="s">
         <v>14</v>
       </c>
@@ -2316,13 +2222,13 @@
       <c r="H29" s="30"/>
     </row>
     <row r="30" spans="1:9" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="62"/>
-      <c r="C30" s="68" t="s">
-        <v>60</v>
+      <c r="B30" s="50"/>
+      <c r="C30" s="52" t="s">
+        <v>59</v>
       </c>
       <c r="D30" s="44"/>
-      <c r="E30" s="71" t="s">
-        <v>72</v>
+      <c r="E30" s="53" t="s">
+        <v>71</v>
       </c>
       <c r="F30" s="45" t="s">
         <v>24</v>
@@ -2333,10 +2239,10 @@
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:9" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="62"/>
-      <c r="C31" s="68"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="71"/>
+      <c r="E31" s="53"/>
       <c r="F31" s="45" t="s">
         <v>14</v>
       </c>
@@ -2344,13 +2250,13 @@
       <c r="H31" s="30"/>
     </row>
     <row r="32" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="62"/>
-      <c r="C32" s="68" t="s">
-        <v>61</v>
+      <c r="B32" s="50"/>
+      <c r="C32" s="52" t="s">
+        <v>60</v>
       </c>
       <c r="D32" s="44"/>
-      <c r="E32" s="71" t="s">
-        <v>73</v>
+      <c r="E32" s="53" t="s">
+        <v>72</v>
       </c>
       <c r="F32" s="45" t="s">
         <v>24</v>
@@ -2361,33 +2267,33 @@
       <c r="H32" s="23"/>
     </row>
     <row r="33" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="62"/>
-      <c r="C33" s="68"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="44"/>
-      <c r="E33" s="71"/>
+      <c r="E33" s="53"/>
       <c r="F33" s="45" t="s">
         <v>14</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="30" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="B34" s="63"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F34" s="45" t="s">
         <v>28</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="30" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.35">
@@ -2409,14 +2315,14 @@
     </row>
     <row r="36" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B36" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D36" s="45"/>
       <c r="E36" s="44" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F36" s="45" t="s">
         <v>26</v>
@@ -2426,10 +2332,10 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="33" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D37" s="45"/>
       <c r="E37" s="44"/>
@@ -2438,15 +2344,15 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="72" t="s">
-        <v>84</v>
+      <c r="B38" s="48" t="s">
+        <v>80</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="6"/>
@@ -2454,14 +2360,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="D5:D6"/>
@@ -2478,12 +2382,14 @@
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2491,54 +2397,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3D3362-D981-44F6-8178-C89D82D995F2}">
-  <dimension ref="C4:C11"/>
-  <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C4" s="68" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C5" s="68"/>
-    </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C7" s="68" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C8" s="68"/>
-    </row>
-    <row r="10" spans="3:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C11" s="50"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C10:C11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B68E2A9-6174-4603-98EA-94EE46FC7103}">
   <dimension ref="B1:D42"/>
   <sheetViews>
@@ -2555,186 +2413,186 @@
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="29" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="15"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="27" spans="2:2" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="36" spans="2:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B36" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2743,7 +2601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C670344E-9E84-453F-8A33-80676A3A476F}">
   <dimension ref="B1:B10"/>
   <sheetViews>
@@ -2759,47 +2617,47 @@
     <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="40" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" s="34" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" s="38" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B5" s="38" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6" s="38" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7" s="38" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B8" s="38" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B9" s="38" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="39" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2808,7 +2666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964681BE-D7B4-4546-8D52-B319A23BFA4E}">
   <dimension ref="B1:B6"/>
   <sheetViews>
@@ -2824,12 +2682,12 @@
     <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="42" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="35" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.35">

--- a/docs/requirements/MOSIP_Admin Requirements.xlsx
+++ b/docs/requirements/MOSIP_Admin Requirements.xlsx
@@ -3,16 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EAFAA352-5A7E-45B8-91C7-3AB068C56ECF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EF267A94-BC06-41E3-AA0E-53E3AA6376EB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Requirements" sheetId="3" r:id="rId1"/>
-    <sheet name="Attributes" sheetId="4" r:id="rId2"/>
-    <sheet name="Proposed User Hierarchy" sheetId="7" r:id="rId3"/>
-    <sheet name="Password Policy" sheetId="6" r:id="rId4"/>
+    <sheet name="Admin Scope" sheetId="10" r:id="rId2"/>
+    <sheet name="Attributes" sheetId="4" r:id="rId3"/>
+    <sheet name="Proposed User Hierarchy" sheetId="7" r:id="rId4"/>
+    <sheet name="Password Policy" sheetId="6" r:id="rId5"/>
+    <sheet name="Values" sheetId="8" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Admin Scope'!$B$2:$H$46</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="226">
   <si>
     <t>Feature</t>
   </si>
@@ -362,23 +367,11 @@
     <t>Registration Center Type</t>
   </si>
   <si>
-    <t>For CNIE, Social Registry, ABIS</t>
-  </si>
-  <si>
     <t>DOB</t>
   </si>
   <si>
     <t xml:space="preserve">To enable an Admin to De-Activate or Re-Activate a UIN : Change status
 This feature will also de-activate or re-activate coresponding VIDs </t>
-  </si>
-  <si>
-    <t>Partner ID Generator</t>
-  </si>
-  <si>
-    <t>Platfrom Setup</t>
-  </si>
-  <si>
-    <t>Flow</t>
   </si>
   <si>
     <t>Setup of MOSIP application data like List of Templates Types, List of Rejection Reasons, etc through a CSV</t>
@@ -686,21 +679,160 @@
 5. History will be maintained in the DB for all the updates in the Device Details</t>
   </si>
   <si>
+    <t>Asset Approval Management</t>
+  </si>
+  <si>
+    <t>1. Zones created by Country should be at a common geographical level, else the zones will overlap.
+Will country manage this overlapping of zones or do we restrict overlapping of zones?
+2. For Devices and Machine, Do we need zones since mapping them to a center will indirectly map them to a center?
+If no, any admin can view all devices/machines since there will be no zonal filters available and no way to restrict access</t>
+  </si>
+  <si>
+    <t>1. To enable user to Logout
+2. User will be Auto logged out after certain time of inactivity. (Period of inactivity:  Configurable)</t>
+  </si>
+  <si>
+    <t>Platform Setup</t>
+  </si>
+  <si>
+    <t>Vital</t>
+  </si>
+  <si>
+    <t>Essential</t>
+  </si>
+  <si>
+    <t>Desirable</t>
+  </si>
+  <si>
+    <t>1.An Admin (Approver) will approve the Users created by the Admin
+2. The Admin creating the Users cannot be same as the Approver
+3. If the admin does not approve for a certain period of time
+     a) Reminder Notifications (How many?)
+     b) Change the approver (what happens if we have only one zonal approver for that zone)
+     c) Auto-Approve
+     d) Reject
+     e) Escalation Mail
+     f) Reports</t>
+  </si>
+  <si>
+    <t>For Reset Password? If Bio Auth is configured and BIO capture device is not available? What should be the further process?</t>
+  </si>
+  <si>
+    <t>Security Policy Configuration</t>
+  </si>
+  <si>
+    <t>API to change Policies
+UI?</t>
+  </si>
+  <si>
+    <t>Role code to role name mapping</t>
+  </si>
+  <si>
+    <t>MISP Creation/Administration will be on Admin Portal</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Can this approval workflow change? Like 1 or multi-step approval process?
+Workflow engine?
+If we go with the Zonal Admin Approach?
+Zonal Approvals?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No approval in Updates for v1
+For V2: Approval process for updates</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Should user receive a notification from MOSIP if his/her zone or center is changed? - Subscription needed for notifications
+Audit events will be created and notificaiton can be sent based on Subscription</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">1. Admin to register a User by giving required details:  Refer "Attributes" sheet
 2. Admin will enter the Username as per the pattern decided by the country
-3. Map user to a Administrative Geographical Hierarchy
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. Map user to a Administrative Geographical Hierarchy - Not needed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 4. Send activation link to the user along with User Name on Phone Number and Email
 5. Seting up password by user
-     a) User clicks on activation link &gt; User enters VID for validation
-     b) User enters mobine number &gt; Receives OTP on registered number &gt; User enters OTP and Submits
-     b) System validates UIN
-     c) System performs Demo Auth
-     d) System checks if User is Child or Adult
-     e) If auth successfull, system enables field to enter password
-     f) User enters password &gt; User re-enters password
-     g) System generates Token ID using Admin's Partner ID and map it to the User  
-     h) User receives a Notification with Username and link to the portal on Phone number and Email
+     a) User clicks on activation link &gt; User enters VID/UIN for validation
+     b) User enters mobile number &gt; Receives OTP on registered number &gt; User enters OTP and Submits
+     c) System validates UIN
+     d) System performs Demo Auth
+     e) System checks if User is Child or Adult
+     f) If auth successful, system enables field to enter password
+     g) User enters password &gt; User re-enters password
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">h) System generates Token ID using Admin's Partner ID and map it to the User - NA 
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">h) System Maps RID to the User in IAM
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: This will be current/latest RID the user has</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     i) User receives a Notification with Username and link to the portal on Phone number and Email
 6. User can start using this account by going to Reg. Client/Admin portal as applicable and logging in by giving username and  password </t>
     </r>
     <r>
@@ -769,35 +901,261 @@
     </r>
   </si>
   <si>
-    <t>Asset Approval Management</t>
-  </si>
-  <si>
-    <t>UIN Flagging (Needs more Analysis)</t>
-  </si>
-  <si>
-    <t>1.An Admin (Approver) will approve the Users created by the Admin
-2. The Admin creating the Users cannot be same as the Approver
-3. If the admin does not approve for a certain period of time
-     a) Remainder Notifications (How many?)
-     b) Change the approver (what happens if we have only one zonal approver for that zone)
-     c) Auto-Approve
-     d) Reject
-     e) Escalation Mail
-     f) Reports</t>
-  </si>
-  <si>
-    <t>1. Zones created by Country should be at a common geographical level, else the zones will overlap.
-Will country manage this overlapping of zones or do we restrict overlapping of zones?
-2. For Devices and Machine, Do we need zones since mapping them to a center will indirectly map them to a center?
-If no, any admin can view all devices/machines since there will be no zonal filters available and no way to restrict access</t>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Back-end</t>
+  </si>
+  <si>
+    <t>ID Definition Validator</t>
+  </si>
+  <si>
+    <t>Configuration Setup</t>
+  </si>
+  <si>
+    <t>Initial Set up of Configurations</t>
+  </si>
+  <si>
+    <t>Available through GIT UI</t>
+  </si>
+  <si>
+    <t>Update Configurations</t>
+  </si>
+  <si>
+    <t>View Configurations</t>
+  </si>
+  <si>
+    <t>Cofiguration Validator</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>To be taken up in v1.5</t>
+  </si>
+  <si>
+    <t>Porcess Flow Setup</t>
+  </si>
+  <si>
+    <t>Initial Set up</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Process Flow Configuration Validator</t>
+  </si>
+  <si>
+    <t>For Doc Upload Porcess - in v1, For Rest of the validation, in v1.5</t>
+  </si>
+  <si>
+    <t>Master Data Setup</t>
+  </si>
+  <si>
+    <t>Initial Set Up</t>
+  </si>
+  <si>
+    <t>Home Page (Profile Management)</t>
+  </si>
+  <si>
+    <t>User Unblocking/Blacklisting/
+Whitelisting/De-Activating/Activating</t>
+  </si>
+  <si>
+    <t>Forgot Password</t>
+  </si>
+  <si>
+    <t>Managing Registration Centers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Discussion scheduled on 16 April</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Managing Machines</t>
+  </si>
+  <si>
+    <t>Managing Devices</t>
+  </si>
+  <si>
+    <t>Managing Center - Machine Mapping</t>
+  </si>
+  <si>
+    <t>Managing Center - Device Mapping</t>
+  </si>
+  <si>
+    <t>Managing Center - User Mapping</t>
+  </si>
+  <si>
+    <t>Asset Managemenet Approval</t>
+  </si>
+  <si>
+    <t>UIN Activation and Deactivation</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>v1.5</t>
+  </si>
+  <si>
+    <t>MISP Management</t>
+  </si>
+  <si>
+    <t>Creation of MISP</t>
+  </si>
+  <si>
+    <t>Back-end APIs will be done as part of Partner Management Portal</t>
+  </si>
+  <si>
+    <t>Mapping a new License Key to MISP</t>
+  </si>
+  <si>
+    <t>Estimates for V1 Features</t>
+  </si>
+  <si>
+    <t>To be able to configure securiy policies for each application. This would include
+1. Session Time out policies
+2. Password policies
+3. Multi-factor auth policies (wherever applicable)
+Admin Portal will only be accesed thorugh Whitelisted IP Address
+Authenticate Users accessing the portal
+At Role Level : Configure Level of AuthN
+Default Policy:
+1. What type of Auth
+2. Which would be compulsory in case of multi factor auth
+3. Minimum number of factors of Auth (Non-Bio/Bio)
+4. Feature Specific auth overwrides Role Specific Behaviour for Reset Password/Forgot Username)</t>
+  </si>
+  <si>
+    <t>Story Title</t>
+  </si>
+  <si>
+    <t>As the MOSIP Admin, I should be able to set up configurations</t>
+  </si>
+  <si>
+    <t>As the MOSIP Admin, I should be able to set up platform data</t>
+  </si>
+  <si>
+    <t>As the MOSIP Admin, I should be able to view Configurations ID Definition</t>
+  </si>
+  <si>
+    <t>As the MOSIP Admin,  I should be able to set up ID Definition</t>
+  </si>
+  <si>
+    <t>As the MOSIP system,  I should be able to validate ID Definition</t>
+  </si>
+  <si>
+    <t>As the MOSIP system, I should be able to validate configurations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As the MOSIP Admin, I should be able to set up Process View </t>
+  </si>
+  <si>
+    <t>As the MOSIP system, I should be able to validate Process View Configurations</t>
+  </si>
+  <si>
+    <t>As the MOSIP Admin, I should be able to set up Master data</t>
+  </si>
+  <si>
+    <t>As the MOSIP Admin, I should be able to log-in the Admin portal</t>
+  </si>
+  <si>
+    <t>As the MOSIP Admin, I should be able to log-out of the Admin portal</t>
+  </si>
+  <si>
+    <t>As the MOSIP Admin, I should be able to navigate on the Admin portal through Home Page</t>
+  </si>
+  <si>
+    <t>As the MOSIP Admin, I should be able to Register a user on Admin Portal</t>
+  </si>
+  <si>
+    <t>As the MOSIP Admin, I should be able to Approve a creation of User on Admin Portal</t>
+  </si>
+  <si>
+    <t>As the MOSIP Admin, I should be able to Activate/De-Activate/Blacklist/Whitelist a User</t>
+  </si>
+  <si>
+    <t>As the MOSIP Admin, I should be able to change password</t>
+  </si>
+  <si>
+    <t>As the MOSIP Admin, I should be able to reset password</t>
+  </si>
+  <si>
+    <t>As the MOSIP Admin, I should be able to retrieve username</t>
+  </si>
+  <si>
+    <t>As the MOSIP Admin, I should be able to unblock account of users</t>
+  </si>
+  <si>
+    <t>As the MOSIP Admin, I should be able to register a  Registration Center</t>
+  </si>
+  <si>
+    <t>As the MOSIP system, I should be able to store Registration Center Details</t>
+  </si>
+  <si>
+    <t>As the MOSIP system, I should be able to store Machine Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As the MOSIP Admin, I should be able to register a  Machine </t>
+  </si>
+  <si>
+    <t>As the MOSIP system, I should be able to store Device Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As the MOSIP Admin, I should be able to register a  Device </t>
+  </si>
+  <si>
+    <t>As the MOSIP system, I should be able to store Center-Device mapping</t>
+  </si>
+  <si>
+    <t>As the MOSIP system, I should be able to store Center-Machine mapping</t>
+  </si>
+  <si>
+    <t>As the MOSIP Admin, I should be able to map a Device to a Center</t>
+  </si>
+  <si>
+    <t>As the MOSIP Admin, I should be able to map a Machine to a Center</t>
+  </si>
+  <si>
+    <t>As the MOSIP system, I should be able to store Center-User mapping</t>
+  </si>
+  <si>
+    <t>As the MOSIP Admin, I should be able to map a User to a Center</t>
+  </si>
+  <si>
+    <t>As the MOSIP Admin, I should be able to approve creation of assets</t>
+  </si>
+  <si>
+    <t>As the MOSIP Admin, I should be able to view stages of a packet based on a RID input</t>
+  </si>
+  <si>
+    <t>As the MOSIP Admin, I should be able to De-activate/Activate a UIN</t>
+  </si>
+  <si>
+    <t>As the MOSIP Admin, I should be able to set up security policies for MOSIP Admins</t>
   </si>
   <si>
     <t xml:space="preserve">
-1. Should user receive a notification from MOSIP if his/her zone or center is changed?</t>
-  </si>
-  <si>
-    <t>1. To enable user to Logout
-2. User will be Auto logged out after certain time of inactivity (Period of inactivity:  Configurable).</t>
+</t>
+  </si>
+  <si>
+    <t>Admin UI
+no Full flegded woorkflow implementation will be provided in this version
+Only maker checker validations ares available for record creation not for updation
+Bulk activation on UI, no API for bult activation/Deactivation
+Maintain reason for blocking the account</t>
+  </si>
+  <si>
+    <t>Customer Comments</t>
   </si>
 </sst>
 </file>
@@ -880,7 +1238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1156,7 +1514,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1170,33 +1541,33 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1204,51 +1575,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1259,31 +1589,22 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1317,9 +1638,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1339,7 +1657,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1355,115 +1672,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1745,28 +2081,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.90625" style="4" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="66.6328125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="110.26953125" style="4" customWidth="1"/>
     <col min="6" max="6" width="57.54296875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.453125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="52.81640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.81640625" style="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="40.1796875" customWidth="1"/>
+    <col min="10" max="10" width="57.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:10" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1774,7 +2108,7 @@
         <v>64</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>21</v>
@@ -1785,590 +2119,664 @@
       <c r="G1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="62" t="s">
+      <c r="I1" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B3" s="71"/>
+      <c r="C3" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="71"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="69"/>
+      <c r="F4" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="50"/>
-      <c r="C3" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="45" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="71"/>
+      <c r="C5" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B6" s="71"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="69"/>
+      <c r="F6" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="23"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="50"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="23"/>
-    </row>
-    <row r="5" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="50"/>
-      <c r="C5" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="23"/>
-    </row>
-    <row r="6" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B6" s="50"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="50"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="44" t="s">
-        <v>127</v>
+      <c r="I6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="71"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="58" t="s">
+        <v>123</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="50"/>
-      <c r="C8" s="65" t="s">
+      <c r="H7" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="71"/>
+      <c r="C8" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="57" t="s">
+      <c r="D8" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="45" t="s">
-        <v>86</v>
+      <c r="F8" s="59" t="s">
+        <v>82</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="2:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="B9" s="50"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="44" t="s">
+    <row r="9" spans="2:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="B9" s="71"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="69"/>
+      <c r="F9" s="58" t="s">
         <v>74</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="71" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="50"/>
-      <c r="C10" s="67"/>
+      <c r="H9" s="77" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="71"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="67"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="44" t="s">
-        <v>92</v>
+      <c r="E10" s="69"/>
+      <c r="F10" s="58" t="s">
+        <v>88</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="72"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="51"/>
+      <c r="H10" s="77"/>
+      <c r="I10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="71"/>
       <c r="C11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="30" t="s">
+        <v>196</v>
+      </c>
       <c r="E11" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>83</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="2:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="B12" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="45" t="s">
+      <c r="H11" s="22"/>
+      <c r="I11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="B12" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="45" t="s">
+      <c r="D12" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="59" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="47" t="s">
+      <c r="H12" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="39"/>
+    </row>
+    <row r="13" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B13" s="71"/>
+      <c r="C13" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="62"/>
+    </row>
+    <row r="14" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="71"/>
+      <c r="C14" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="80" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="2:10" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="71"/>
+      <c r="C16" s="29" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B13" s="50"/>
-      <c r="C13" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="43"/>
-    </row>
-    <row r="14" spans="2:9" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="51"/>
-      <c r="C14" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="23"/>
-    </row>
-    <row r="15" spans="2:9" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="2:9" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="50"/>
-      <c r="C16" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="31"/>
+      <c r="D16" s="33" t="s">
+        <v>201</v>
+      </c>
       <c r="E16" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="36" t="s">
-        <v>103</v>
+      <c r="F16" s="58" t="s">
+        <v>224</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="51"/>
-      <c r="C17" s="37" t="s">
+      <c r="H16" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="71"/>
+      <c r="C17" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="80" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="B18" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="71"/>
+      <c r="C19" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="61" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="B20" s="71"/>
+      <c r="C20" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="61"/>
+    </row>
+    <row r="21" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="71"/>
+      <c r="C21" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="B18" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="5" t="s">
+      <c r="F21" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="61"/>
+    </row>
+    <row r="22" spans="1:8" ht="140" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="65"/>
+      <c r="B22" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="47" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="50"/>
-      <c r="C19" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="47"/>
-    </row>
-    <row r="20" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="B20" s="50"/>
-      <c r="C20" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="47"/>
-    </row>
-    <row r="21" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="51"/>
-      <c r="C21" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="47"/>
-    </row>
-    <row r="22" spans="1:9" ht="140" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="61"/>
-      <c r="B22" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" s="45" t="s">
+      <c r="D22" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="59" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="69" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="133" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="61"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="45" t="s">
+      <c r="H22" s="74" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="133" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="65"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E23" s="69"/>
+      <c r="F23" s="59" t="s">
         <v>23</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="70"/>
-    </row>
-    <row r="24" spans="1:9" ht="137.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="61"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="54" t="s">
+      <c r="H23" s="74"/>
+    </row>
+    <row r="24" spans="1:8" ht="137.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="65"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" s="45" t="s">
+      <c r="D24" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="59" t="s">
         <v>24</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="23"/>
-    </row>
-    <row r="25" spans="1:9" ht="148" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="61"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="45" t="s">
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" spans="1:8" ht="148" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="65"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25" s="69"/>
+      <c r="F25" s="59" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="24"/>
-    </row>
-    <row r="26" spans="1:9" ht="145" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="50"/>
-      <c r="C26" s="54" t="s">
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="1:8" ht="145" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="71"/>
+      <c r="C26" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" s="45" t="s">
+      <c r="D26" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="59" t="s">
         <v>24</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="1:9" ht="151.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="50"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="45" t="s">
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="1:8" ht="151.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="71"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E27" s="69"/>
+      <c r="F27" s="59" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="23"/>
-    </row>
-    <row r="28" spans="1:9" ht="73" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="50"/>
-      <c r="C28" s="52" t="s">
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="1:8" ht="73" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="71"/>
+      <c r="C28" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="53" t="s">
+      <c r="D28" s="80" t="s">
+        <v>213</v>
+      </c>
+      <c r="E28" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="45" t="s">
+      <c r="F28" s="59" t="s">
         <v>24</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="23"/>
-    </row>
-    <row r="29" spans="1:9" ht="85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="50"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="45" t="s">
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" spans="1:8" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="71"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E29" s="70"/>
+      <c r="F29" s="59" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="30"/>
-    </row>
-    <row r="30" spans="1:9" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="50"/>
-      <c r="C30" s="52" t="s">
+      <c r="H29" s="28"/>
+    </row>
+    <row r="30" spans="1:8" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="71"/>
+      <c r="C30" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="53" t="s">
+      <c r="D30" s="80" t="s">
+        <v>214</v>
+      </c>
+      <c r="E30" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="45" t="s">
+      <c r="F30" s="59" t="s">
         <v>24</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="23"/>
-    </row>
-    <row r="31" spans="1:9" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="50"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="45" t="s">
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="1:8" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="71"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31" s="70"/>
+      <c r="F31" s="59" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="30"/>
-    </row>
-    <row r="32" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="50"/>
-      <c r="C32" s="52" t="s">
+      <c r="H31" s="28"/>
+    </row>
+    <row r="32" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="71"/>
+      <c r="C32" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="53" t="s">
+      <c r="D32" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="E32" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="45" t="s">
+      <c r="F32" s="59" t="s">
         <v>24</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="23"/>
+      <c r="H32" s="22"/>
     </row>
     <row r="33" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="50"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="45" t="s">
+      <c r="B33" s="71"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E33" s="70"/>
+      <c r="F33" s="59" t="s">
         <v>14</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="30" t="s">
+      <c r="H33" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="B34" s="71"/>
+      <c r="C34" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B35" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="80" t="s">
+        <v>220</v>
+      </c>
+      <c r="E35" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="22"/>
+    </row>
+    <row r="36" spans="2:8" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="80" t="s">
+        <v>221</v>
+      </c>
+      <c r="E36" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="22"/>
+    </row>
+    <row r="37" spans="2:8" ht="174" x14ac:dyDescent="0.35">
+      <c r="B37" s="60" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="B34" s="51"/>
-      <c r="C34" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B35" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="23"/>
-    </row>
-    <row r="36" spans="2:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="B36" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="45"/>
-      <c r="E36" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="23"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B37" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" s="45"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="45"/>
+      <c r="C37" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="80" t="s">
+        <v>222</v>
+      </c>
+      <c r="E37" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="F37" s="58" t="s">
+        <v>140</v>
+      </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="23"/>
-    </row>
-    <row r="38" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="25"/>
+      <c r="H37" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="D3:D4"/>
+  <mergeCells count="28">
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="C22:C23"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D5:D6"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B2:B11"/>
@@ -2382,21 +2790,931 @@
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{913BA5A1-4478-4D08-B212-7AE831ED0037}">
+          <x14:formula1>
+            <xm:f>Values!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I37</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536CE806-BD74-41B7-8621-9DBCAF93F14E}">
+  <dimension ref="B1:I50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J8" sqref="J5:J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" customWidth="1"/>
+    <col min="6" max="6" width="19.6328125" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" customWidth="1"/>
+    <col min="8" max="8" width="58.26953125" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:9" ht="37.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="53">
+        <v>20</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="54"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="63">
+        <v>6</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="44"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="64"/>
+      <c r="G5" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="44"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="63">
+        <v>30</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="44"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="71"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="76"/>
+      <c r="G7" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="71"/>
+      <c r="C8" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="76"/>
+      <c r="G8" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="44"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="71"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="76"/>
+      <c r="G9" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="71"/>
+      <c r="C10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="76"/>
+      <c r="G10" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="71"/>
+      <c r="C11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="64"/>
+      <c r="G11" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="63">
+        <v>20</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="44"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="71"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="76"/>
+      <c r="G13" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="71"/>
+      <c r="C14" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" s="76"/>
+      <c r="G14" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="44"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" s="76"/>
+      <c r="G15" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="71"/>
+      <c r="C16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="76"/>
+      <c r="G16" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="44"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="71"/>
+      <c r="C17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="64"/>
+      <c r="G17" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" s="43">
+        <v>30</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="44"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="71"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="44"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="43">
+        <v>15</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="44"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="71"/>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="44"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B22" s="71"/>
+      <c r="C22" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" s="44"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" s="43">
+        <v>25</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="44"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="71"/>
+      <c r="C24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" s="44"/>
+    </row>
+    <row r="25" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B25" s="71"/>
+      <c r="C25" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" s="44"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B26" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="43">
+        <v>20</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="44"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B27" s="71"/>
+      <c r="C27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H27" s="44"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B28" s="71"/>
+      <c r="C28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="44"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B29" s="71"/>
+      <c r="C29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="44"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B30" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F30" s="43">
+        <v>50</v>
+      </c>
+      <c r="G30" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" s="77" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B31" s="71"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" s="45"/>
+      <c r="G31" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" s="77"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B32" s="71"/>
+      <c r="C32" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H32" s="77"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B33" s="71"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" s="45"/>
+      <c r="G33" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H33" s="77"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B34" s="71"/>
+      <c r="C34" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H34" s="77"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B35" s="71"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="45"/>
+      <c r="G35" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H35" s="77"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="71"/>
+      <c r="C36" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36" s="77"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B37" s="71"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" s="45"/>
+      <c r="G37" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="H37" s="77"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B38" s="71"/>
+      <c r="C38" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H38" s="77"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B39" s="71"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="F39" s="45"/>
+      <c r="G39" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="H39" s="77"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B40" s="71"/>
+      <c r="C40" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H40" s="77"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B41" s="71"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" s="45"/>
+      <c r="G41" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="H41" s="77"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B42" s="71"/>
+      <c r="C42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="F42" s="45"/>
+      <c r="G42" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="H42" s="77"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B43" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F43" s="43">
+        <v>15</v>
+      </c>
+      <c r="G43" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H43" s="44"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B44" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F44" s="43">
+        <v>5</v>
+      </c>
+      <c r="G44" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H44" s="44"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B45" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D45" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H45" s="74" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="73"/>
+      <c r="C46" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="H46" s="75"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F48" s="56">
+        <f>SUM(F3:F46)</f>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F49" s="57">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F50" s="57">
+        <f>F48-F49</f>
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:H46" xr:uid="{487A8692-191B-486E-8584-9C53CC415580}"/>
+  <mergeCells count="24">
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="H30:H42"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B42"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E9798B11-B56F-46E7-AD54-35C7F01246A1}">
+          <x14:formula1>
+            <xm:f>Values!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>G3:G46</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B68E2A9-6174-4603-98EA-94EE46FC7103}">
   <dimension ref="B1:D42"/>
   <sheetViews>
@@ -2412,186 +3730,186 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="29" t="s">
-        <v>78</v>
+      <c r="B7" s="27" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="26" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="27" spans="2:2" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="36" spans="2:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2601,12 +3919,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C670344E-9E84-453F-8A33-80676A3A476F}">
-  <dimension ref="B1:B10"/>
+  <dimension ref="B1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2616,48 +3934,58 @@
   <sheetData>
     <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
-        <v>114</v>
+      <c r="B2" s="36" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="34" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="38" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="34" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="38" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="34" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="38" t="s">
+    <row r="10" spans="2:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="35" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="38" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="39" t="s">
-        <v>113</v>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2666,7 +3994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964681BE-D7B4-4546-8D52-B319A23BFA4E}">
   <dimension ref="B1:B6"/>
   <sheetViews>
@@ -2681,17 +4009,48 @@
   <sheetData>
     <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="42" t="s">
-        <v>100</v>
+      <c r="B2" s="38" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="131" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="35" t="s">
-        <v>101</v>
+      <c r="B3" s="32" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="41"/>
+      <c r="B6" s="37"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FB7E7B-6A01-49F1-91A6-D8FE055246EA}">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/requirements/MOSIP_Admin Requirements.xlsx
+++ b/docs/requirements/MOSIP_Admin Requirements.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EF267A94-BC06-41E3-AA0E-53E3AA6376EB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6B45E9B7-4509-4EF3-94BE-4732DEDEB545}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -974,9 +974,6 @@
     <t>Managing Registration Centers</t>
   </si>
   <si>
-    <t xml:space="preserve"> Discussion scheduled on 16 April</t>
-  </si>
-  <si>
     <t>TBD</t>
   </si>
   <si>
@@ -1156,6 +1153,9 @@
   </si>
   <si>
     <t>Customer Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Discussion scheduled on 19th April</t>
   </si>
 </sst>
 </file>
@@ -1744,62 +1744,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2108,7 +2108,7 @@
         <v>64</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>21</v>
@@ -2127,14 +2127,14 @@
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="70" t="s">
         <v>133</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>79</v>
@@ -2146,14 +2146,14 @@
       <c r="H2" s="21"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="71"/>
-      <c r="C3" s="78" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="71" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="66" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="59" t="s">
@@ -2163,12 +2163,12 @@
       <c r="H3" s="22"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="71"/>
-      <c r="C4" s="78"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="69"/>
+        <v>191</v>
+      </c>
+      <c r="E4" s="66"/>
       <c r="F4" s="59" t="s">
         <v>81</v>
       </c>
@@ -2176,14 +2176,14 @@
       <c r="H4" s="22"/>
     </row>
     <row r="5" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="71"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="68" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E5" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="66" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="59" t="s">
@@ -2193,12 +2193,12 @@
       <c r="H5" s="22"/>
     </row>
     <row r="6" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B6" s="71"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="68"/>
       <c r="D6" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" s="69"/>
+        <v>192</v>
+      </c>
+      <c r="E6" s="66"/>
       <c r="F6" s="58" t="s">
         <v>85</v>
       </c>
@@ -2211,12 +2211,12 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="71"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="68"/>
       <c r="D7" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" s="69"/>
+        <v>189</v>
+      </c>
+      <c r="E7" s="66"/>
       <c r="F7" s="58" t="s">
         <v>123</v>
       </c>
@@ -2229,14 +2229,14 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B8" s="71"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="68" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="59" t="s">
@@ -2246,41 +2246,41 @@
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="2:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="B9" s="71"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="68"/>
-      <c r="D9" s="66" t="s">
-        <v>195</v>
-      </c>
-      <c r="E9" s="69"/>
+      <c r="D9" s="74" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="66"/>
       <c r="F9" s="58" t="s">
         <v>74</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="77" t="s">
+      <c r="H9" s="73" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="71"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="68"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="69"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="58" t="s">
         <v>88</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="77"/>
+      <c r="H10" s="73"/>
       <c r="I10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="71"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>84</v>
@@ -2295,14 +2295,14 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="87" x14ac:dyDescent="0.35">
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="65" t="s">
         <v>89</v>
       </c>
       <c r="C12" s="59" t="s">
         <v>61</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E12" s="58" t="s">
         <v>112</v>
@@ -2319,12 +2319,12 @@
       <c r="J12" s="39"/>
     </row>
     <row r="13" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B13" s="71"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="59" t="s">
         <v>62</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E13" s="58" t="s">
         <v>132</v>
@@ -2336,12 +2336,12 @@
       <c r="H13" s="62"/>
     </row>
     <row r="14" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="71"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="80" t="s">
-        <v>199</v>
+      <c r="D14" s="63" t="s">
+        <v>198</v>
       </c>
       <c r="E14" s="58" t="s">
         <v>95</v>
@@ -2353,14 +2353,14 @@
       <c r="H14" s="22"/>
     </row>
     <row r="15" spans="2:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="65" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>92</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>145</v>
@@ -2374,34 +2374,34 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="71"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="29" t="s">
         <v>98</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>137</v>
       </c>
       <c r="F16" s="58" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="28" t="s">
         <v>143</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="71"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="80" t="s">
-        <v>202</v>
+      <c r="D17" s="63" t="s">
+        <v>201</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>119</v>
@@ -2415,14 +2415,14 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="65" t="s">
         <v>93</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>114</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>122</v>
@@ -2436,12 +2436,12 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="71"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="12" t="s">
         <v>115</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>118</v>
@@ -2455,12 +2455,12 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="B20" s="71"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="12" t="s">
         <v>113</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>120</v>
@@ -2472,12 +2472,12 @@
       <c r="H20" s="61"/>
     </row>
     <row r="21" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="71"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="12" t="s">
         <v>116</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>121</v>
@@ -2489,17 +2489,17 @@
       <c r="H21" s="61"/>
     </row>
     <row r="22" spans="1:8" ht="140" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="65"/>
-      <c r="B22" s="71" t="s">
+      <c r="A22" s="69"/>
+      <c r="B22" s="65" t="s">
         <v>126</v>
       </c>
       <c r="C22" s="68" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="E22" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" s="66" t="s">
         <v>127</v>
       </c>
       <c r="F22" s="59" t="s">
@@ -2508,34 +2508,34 @@
       <c r="G22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="74" t="s">
+      <c r="H22" s="72" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="133" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="65"/>
-      <c r="B23" s="71"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="68"/>
       <c r="D23" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E23" s="69"/>
+        <v>206</v>
+      </c>
+      <c r="E23" s="66"/>
       <c r="F23" s="59" t="s">
         <v>23</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="74"/>
+      <c r="H23" s="72"/>
     </row>
     <row r="24" spans="1:8" ht="137.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="65"/>
-      <c r="B24" s="71"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="68" t="s">
         <v>56</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E24" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="E24" s="66" t="s">
         <v>128</v>
       </c>
       <c r="F24" s="59" t="s">
@@ -2547,13 +2547,13 @@
       <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:8" ht="148" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="65"/>
-      <c r="B25" s="71"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="68"/>
       <c r="D25" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E25" s="69"/>
+        <v>209</v>
+      </c>
+      <c r="E25" s="66"/>
       <c r="F25" s="59" t="s">
         <v>14</v>
       </c>
@@ -2561,14 +2561,14 @@
       <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8" ht="145" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="71"/>
+      <c r="B26" s="65"/>
       <c r="C26" s="68" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="E26" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="66" t="s">
         <v>129</v>
       </c>
       <c r="F26" s="59" t="s">
@@ -2580,12 +2580,12 @@
       <c r="H26" s="23"/>
     </row>
     <row r="27" spans="1:8" ht="151.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="71"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="68"/>
       <c r="D27" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="E27" s="69"/>
+        <v>211</v>
+      </c>
+      <c r="E27" s="66"/>
       <c r="F27" s="59" t="s">
         <v>14</v>
       </c>
@@ -2593,14 +2593,14 @@
       <c r="H27" s="22"/>
     </row>
     <row r="28" spans="1:8" ht="73" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="71"/>
-      <c r="C28" s="69" t="s">
+      <c r="B28" s="65"/>
+      <c r="C28" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="80" t="s">
-        <v>213</v>
-      </c>
-      <c r="E28" s="70" t="s">
+      <c r="D28" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" s="67" t="s">
         <v>70</v>
       </c>
       <c r="F28" s="59" t="s">
@@ -2612,12 +2612,12 @@
       <c r="H28" s="22"/>
     </row>
     <row r="29" spans="1:8" ht="85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="71"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="E29" s="70"/>
+        <v>214</v>
+      </c>
+      <c r="E29" s="67"/>
       <c r="F29" s="59" t="s">
         <v>14</v>
       </c>
@@ -2625,14 +2625,14 @@
       <c r="H29" s="28"/>
     </row>
     <row r="30" spans="1:8" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="71"/>
-      <c r="C30" s="69" t="s">
+      <c r="B30" s="65"/>
+      <c r="C30" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="80" t="s">
-        <v>214</v>
-      </c>
-      <c r="E30" s="70" t="s">
+      <c r="D30" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="E30" s="67" t="s">
         <v>71</v>
       </c>
       <c r="F30" s="59" t="s">
@@ -2644,12 +2644,12 @@
       <c r="H30" s="22"/>
     </row>
     <row r="31" spans="1:8" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="71"/>
-      <c r="C31" s="69"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="66"/>
       <c r="D31" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="E31" s="70"/>
+        <v>215</v>
+      </c>
+      <c r="E31" s="67"/>
       <c r="F31" s="59" t="s">
         <v>14</v>
       </c>
@@ -2657,14 +2657,14 @@
       <c r="H31" s="28"/>
     </row>
     <row r="32" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="71"/>
-      <c r="C32" s="69" t="s">
+      <c r="B32" s="65"/>
+      <c r="C32" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="80" t="s">
-        <v>217</v>
-      </c>
-      <c r="E32" s="70" t="s">
+      <c r="D32" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="E32" s="67" t="s">
         <v>72</v>
       </c>
       <c r="F32" s="59" t="s">
@@ -2676,12 +2676,12 @@
       <c r="H32" s="22"/>
     </row>
     <row r="33" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="71"/>
-      <c r="C33" s="69"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="66"/>
       <c r="D33" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E33" s="70"/>
+        <v>217</v>
+      </c>
+      <c r="E33" s="67"/>
       <c r="F33" s="59" t="s">
         <v>14</v>
       </c>
@@ -2691,12 +2691,12 @@
       </c>
     </row>
     <row r="34" spans="2:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="B34" s="71"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E34" s="58" t="s">
         <v>73</v>
@@ -2716,8 +2716,8 @@
       <c r="C35" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="80" t="s">
-        <v>220</v>
+      <c r="D35" s="63" t="s">
+        <v>219</v>
       </c>
       <c r="E35" s="58" t="s">
         <v>25</v>
@@ -2735,8 +2735,8 @@
       <c r="C36" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="80" t="s">
-        <v>221</v>
+      <c r="D36" s="63" t="s">
+        <v>220</v>
       </c>
       <c r="E36" s="58" t="s">
         <v>78</v>
@@ -2754,11 +2754,11 @@
       <c r="C37" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="80" t="s">
-        <v>222</v>
+      <c r="D37" s="63" t="s">
+        <v>221</v>
       </c>
       <c r="E37" s="58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F37" s="58" t="s">
         <v>140</v>
@@ -2768,14 +2768,10 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
@@ -2792,10 +2788,14 @@
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2819,7 +2819,7 @@
   <dimension ref="B1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J8" sqref="J5:J8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2848,7 +2848,7 @@
         <v>147</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G2" s="49" t="s">
         <v>80</v>
@@ -2856,8 +2856,8 @@
       <c r="H2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="81" t="s">
-        <v>225</v>
+      <c r="I2" s="64" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
@@ -2871,7 +2871,7 @@
         <v>149</v>
       </c>
       <c r="E3" s="53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F3" s="53">
         <v>20</v>
@@ -2892,9 +2892,9 @@
         <v>149</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="F4" s="63">
+        <v>178</v>
+      </c>
+      <c r="F4" s="78">
         <v>6</v>
       </c>
       <c r="G4" s="43" t="s">
@@ -2913,16 +2913,16 @@
         <v>149</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="F5" s="64"/>
+        <v>178</v>
+      </c>
+      <c r="F5" s="79"/>
       <c r="G5" s="43" t="s">
         <v>134</v>
       </c>
       <c r="H5" s="44"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="65" t="s">
         <v>151</v>
       </c>
       <c r="C6" s="68" t="s">
@@ -2932,9 +2932,9 @@
         <v>149</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" s="63">
+        <v>178</v>
+      </c>
+      <c r="F6" s="78">
         <v>30</v>
       </c>
       <c r="G6" s="43" t="s">
@@ -2943,15 +2943,15 @@
       <c r="H6" s="44"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="71"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="68"/>
       <c r="D7" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="F7" s="76"/>
+        <v>178</v>
+      </c>
+      <c r="F7" s="80"/>
       <c r="G7" s="43" t="s">
         <v>134</v>
       </c>
@@ -2960,32 +2960,32 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="71"/>
-      <c r="C8" s="72" t="s">
+      <c r="B8" s="65"/>
+      <c r="C8" s="81" t="s">
         <v>154</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="F8" s="76"/>
+        <v>178</v>
+      </c>
+      <c r="F8" s="80"/>
       <c r="G8" s="43" t="s">
         <v>134</v>
       </c>
       <c r="H8" s="44"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="71"/>
-      <c r="C9" s="72"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" s="76"/>
+        <v>178</v>
+      </c>
+      <c r="F9" s="80"/>
       <c r="G9" s="43" t="s">
         <v>136</v>
       </c>
@@ -2994,7 +2994,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="71"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="1" t="s">
         <v>155</v>
       </c>
@@ -3002,9 +3002,9 @@
         <v>146</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="F10" s="76"/>
+        <v>178</v>
+      </c>
+      <c r="F10" s="80"/>
       <c r="G10" s="43" t="s">
         <v>136</v>
       </c>
@@ -3013,7 +3013,7 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="71"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="1" t="s">
         <v>156</v>
       </c>
@@ -3021,9 +3021,9 @@
         <v>157</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="F11" s="64"/>
+        <v>179</v>
+      </c>
+      <c r="F11" s="79"/>
       <c r="G11" s="43" t="s">
         <v>135</v>
       </c>
@@ -3032,7 +3032,7 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="65" t="s">
         <v>159</v>
       </c>
       <c r="C12" s="68" t="s">
@@ -3042,9 +3042,9 @@
         <v>149</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="F12" s="63">
+        <v>178</v>
+      </c>
+      <c r="F12" s="78">
         <v>20</v>
       </c>
       <c r="G12" s="43" t="s">
@@ -3053,15 +3053,15 @@
       <c r="H12" s="44"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="71"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="68"/>
       <c r="D13" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="F13" s="76"/>
+        <v>179</v>
+      </c>
+      <c r="F13" s="80"/>
       <c r="G13" s="43" t="s">
         <v>136</v>
       </c>
@@ -3070,32 +3070,32 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="71"/>
-      <c r="C14" s="72" t="s">
+      <c r="B14" s="65"/>
+      <c r="C14" s="81" t="s">
         <v>161</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="F14" s="76"/>
+        <v>178</v>
+      </c>
+      <c r="F14" s="80"/>
       <c r="G14" s="43" t="s">
         <v>134</v>
       </c>
       <c r="H14" s="44"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="71"/>
-      <c r="C15" s="72"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="81"/>
       <c r="D15" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="F15" s="76"/>
+        <v>179</v>
+      </c>
+      <c r="F15" s="80"/>
       <c r="G15" s="43" t="s">
         <v>136</v>
       </c>
@@ -3104,7 +3104,7 @@
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="71"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="1" t="s">
         <v>155</v>
       </c>
@@ -3112,16 +3112,16 @@
         <v>146</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" s="76"/>
+        <v>179</v>
+      </c>
+      <c r="F16" s="80"/>
       <c r="G16" s="43" t="s">
         <v>136</v>
       </c>
       <c r="H16" s="44"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="71"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="1" t="s">
         <v>162</v>
       </c>
@@ -3129,9 +3129,9 @@
         <v>157</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="F17" s="64"/>
+        <v>178</v>
+      </c>
+      <c r="F17" s="79"/>
       <c r="G17" s="43" t="s">
         <v>135</v>
       </c>
@@ -3140,7 +3140,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="65" t="s">
         <v>164</v>
       </c>
       <c r="C18" s="68" t="s">
@@ -3150,7 +3150,7 @@
         <v>149</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F18" s="43">
         <v>30</v>
@@ -3161,13 +3161,13 @@
       <c r="H18" s="44"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="71"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="68"/>
       <c r="D19" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F19" s="43"/>
       <c r="G19" s="43" t="s">
@@ -3176,7 +3176,7 @@
       <c r="H19" s="44"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="65" t="s">
         <v>89</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -3186,7 +3186,7 @@
         <v>146</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F20" s="43">
         <v>15</v>
@@ -3197,7 +3197,7 @@
       <c r="H20" s="44"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="71"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="1" t="s">
         <v>62</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>146</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F21" s="43"/>
       <c r="G21" s="43" t="s">
@@ -3214,7 +3214,7 @@
       <c r="H21" s="44"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="71"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="1" t="s">
         <v>166</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>146</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F22" s="43"/>
       <c r="G22" s="43" t="s">
@@ -3231,7 +3231,7 @@
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="65" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -3241,7 +3241,7 @@
         <v>146</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F23" s="43">
         <v>25</v>
@@ -3252,7 +3252,7 @@
       <c r="H23" s="44"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="71"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="1" t="s">
         <v>98</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>146</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F24" s="43"/>
       <c r="G24" s="43" t="s">
@@ -3269,7 +3269,7 @@
       <c r="H24" s="44"/>
     </row>
     <row r="25" spans="2:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="B25" s="71"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="2" t="s">
         <v>167</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>146</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F25" s="43"/>
       <c r="G25" s="43" t="s">
@@ -3286,7 +3286,7 @@
       <c r="H25" s="44"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="65" t="s">
         <v>93</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -3296,7 +3296,7 @@
         <v>146</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F26" s="43">
         <v>20</v>
@@ -3307,7 +3307,7 @@
       <c r="H26" s="44"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B27" s="71"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="1" t="s">
         <v>115</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>146</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F27" s="43"/>
       <c r="G27" s="43" t="s">
@@ -3324,7 +3324,7 @@
       <c r="H27" s="44"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B28" s="71"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="1" t="s">
         <v>168</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>146</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F28" s="43"/>
       <c r="G28" s="43" t="s">
@@ -3341,7 +3341,7 @@
       <c r="H28" s="44"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B29" s="71"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="1" t="s">
         <v>116</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>146</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F29" s="43"/>
       <c r="G29" s="43" t="s">
@@ -3358,7 +3358,7 @@
       <c r="H29" s="44"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="65" t="s">
         <v>126</v>
       </c>
       <c r="C30" s="68" t="s">
@@ -3368,7 +3368,7 @@
         <v>149</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F30" s="43">
         <v>50</v>
@@ -3376,201 +3376,201 @@
       <c r="G30" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="H30" s="77" t="s">
-        <v>170</v>
+      <c r="H30" s="73" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B31" s="71"/>
+      <c r="B31" s="65"/>
       <c r="C31" s="68"/>
       <c r="D31" s="40" t="s">
         <v>146</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F31" s="45"/>
       <c r="G31" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="H31" s="77"/>
+      <c r="H31" s="73"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B32" s="71"/>
+      <c r="B32" s="65"/>
       <c r="C32" s="68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D32" s="40" t="s">
         <v>149</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F32" s="43"/>
       <c r="G32" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="H32" s="77"/>
+      <c r="H32" s="73"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B33" s="71"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="68"/>
       <c r="D33" s="40" t="s">
         <v>146</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F33" s="45"/>
       <c r="G33" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="H33" s="77"/>
+      <c r="H33" s="73"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34" s="71"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D34" s="40" t="s">
         <v>149</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F34" s="43"/>
       <c r="G34" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="H34" s="77"/>
+      <c r="H34" s="73"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B35" s="71"/>
+      <c r="B35" s="65"/>
       <c r="C35" s="68"/>
       <c r="D35" s="40" t="s">
         <v>146</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F35" s="45"/>
       <c r="G35" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="H35" s="77"/>
+      <c r="H35" s="73"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B36" s="71"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D36" s="40" t="s">
         <v>149</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F36" s="43"/>
       <c r="G36" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="H36" s="77"/>
+      <c r="H36" s="73"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B37" s="71"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="68"/>
       <c r="D37" s="40" t="s">
         <v>146</v>
       </c>
       <c r="E37" s="45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F37" s="45"/>
       <c r="G37" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="H37" s="77"/>
+      <c r="H37" s="73"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B38" s="71"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D38" s="40" t="s">
         <v>149</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F38" s="43"/>
       <c r="G38" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="H38" s="77"/>
+      <c r="H38" s="73"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B39" s="71"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="68"/>
       <c r="D39" s="40" t="s">
         <v>146</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F39" s="45"/>
       <c r="G39" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="H39" s="77"/>
+      <c r="H39" s="73"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B40" s="71"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="68" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D40" s="40" t="s">
         <v>149</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F40" s="43"/>
       <c r="G40" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="H40" s="77"/>
+      <c r="H40" s="73"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B41" s="71"/>
+      <c r="B41" s="65"/>
       <c r="C41" s="68"/>
       <c r="D41" s="40" t="s">
         <v>146</v>
       </c>
       <c r="E41" s="45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F41" s="45"/>
       <c r="G41" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="H41" s="77"/>
+      <c r="H41" s="73"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B42" s="71"/>
+      <c r="B42" s="65"/>
       <c r="C42" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D42" s="40" t="s">
         <v>146</v>
       </c>
       <c r="E42" s="45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F42" s="45"/>
       <c r="G42" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="H42" s="77"/>
+      <c r="H42" s="73"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" s="41" t="s">
@@ -3583,7 +3583,7 @@
         <v>149</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F43" s="43">
         <v>15</v>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C44" s="42" t="s">
         <v>148</v>
@@ -3604,7 +3604,7 @@
         <v>146</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F44" s="43">
         <v>5</v>
@@ -3615,42 +3615,42 @@
       <c r="H44" s="44"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B45" s="71" t="s">
+      <c r="B45" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="D45" s="40" t="s">
         <v>146</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F45" s="43"/>
       <c r="G45" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="H45" s="74" t="s">
+      <c r="H45" s="72" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="76"/>
+      <c r="C46" s="6" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="73"/>
-      <c r="C46" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>146</v>
       </c>
       <c r="E46" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F46" s="55"/>
       <c r="G46" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="H46" s="75"/>
+      <c r="H46" s="77"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F48" s="56">
@@ -3672,6 +3672,14 @@
   </sheetData>
   <autoFilter ref="B2:H46" xr:uid="{487A8692-191B-486E-8584-9C53CC415580}"/>
   <mergeCells count="24">
+    <mergeCell ref="B30:B42"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="H45:H46"/>
     <mergeCell ref="F4:F5"/>
@@ -3688,14 +3696,6 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B42"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/docs/requirements/MOSIP_Admin Requirements.xlsx
+++ b/docs/requirements/MOSIP_Admin Requirements.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6B45E9B7-4509-4EF3-94BE-4732DEDEB545}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{88CDC7A6-224E-4A80-AEAF-92C3FDB3E53A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Admin Requirements" sheetId="3" r:id="rId1"/>
-    <sheet name="Admin Scope" sheetId="10" r:id="rId2"/>
+    <sheet name="Admin Scope" sheetId="10" r:id="rId1"/>
+    <sheet name="Admin Requirements" sheetId="3" r:id="rId2"/>
     <sheet name="Attributes" sheetId="4" r:id="rId3"/>
     <sheet name="Proposed User Hierarchy" sheetId="7" r:id="rId4"/>
     <sheet name="Password Policy" sheetId="6" r:id="rId5"/>
     <sheet name="Values" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Admin Scope'!$B$2:$H$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Admin Scope'!$B$2:$H$46</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="225">
   <si>
     <t>Feature</t>
   </si>
@@ -974,9 +974,6 @@
     <t>Managing Registration Centers</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>Managing Machines</t>
   </si>
   <si>
@@ -990,9 +987,6 @@
   </si>
   <si>
     <t>Managing Center - User Mapping</t>
-  </si>
-  <si>
-    <t>Asset Managemenet Approval</t>
   </si>
   <si>
     <t>UIN Activation and Deactivation</t>
@@ -1156,6 +1150,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Discussion scheduled on 19th April</t>
+  </si>
+  <si>
+    <t>Asset Management Approval</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1322,21 +1319,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1600,11 +1582,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1620,17 +1641,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1642,50 +1663,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1699,27 +1720,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1747,60 +1762,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2080,6 +2105,947 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536CE806-BD74-41B7-8621-9DBCAF93F14E}">
+  <dimension ref="B1:I50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" customWidth="1"/>
+    <col min="6" max="6" width="19.6328125" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" customWidth="1"/>
+    <col min="8" max="8" width="58.26953125" customWidth="1"/>
+    <col min="9" max="9" width="27.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:9" ht="37.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="83" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="50">
+        <v>20</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="78"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="73">
+        <v>6</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="79"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="74"/>
+      <c r="G5" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="79"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="73">
+        <v>30</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="79"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="67"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="75"/>
+      <c r="G7" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="67"/>
+      <c r="C8" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="75"/>
+      <c r="G8" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="79"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="67"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="75"/>
+      <c r="G9" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="67"/>
+      <c r="C10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="75"/>
+      <c r="G10" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="67"/>
+      <c r="C11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="74"/>
+      <c r="G11" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="73">
+        <v>20</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="79"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="67"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="75"/>
+      <c r="G13" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="67"/>
+      <c r="C14" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="75"/>
+      <c r="G14" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="79"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="67"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15" s="75"/>
+      <c r="G15" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="67"/>
+      <c r="C16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" s="75"/>
+      <c r="G16" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="79"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="67"/>
+      <c r="C17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" s="74"/>
+      <c r="G17" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F18" s="73">
+        <v>30</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="79"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="67"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" s="74"/>
+      <c r="G19" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="79"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" s="73">
+        <v>15</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="79"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="67"/>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="75"/>
+      <c r="G21" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="79"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B22" s="67"/>
+      <c r="C22" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="74"/>
+      <c r="G22" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" s="79"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B23" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="73">
+        <v>25</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="79"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B24" s="67"/>
+      <c r="C24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="75"/>
+      <c r="G24" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" s="79"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B25" s="67"/>
+      <c r="C25" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="74"/>
+      <c r="G25" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" s="79"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B26" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="73">
+        <v>20</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="79"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="67"/>
+      <c r="C27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27" s="75"/>
+      <c r="G27" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H27" s="79"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B28" s="67"/>
+      <c r="C28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" s="75"/>
+      <c r="G28" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="79"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B29" s="67"/>
+      <c r="C29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="74"/>
+      <c r="G29" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="79"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="73">
+        <v>50</v>
+      </c>
+      <c r="G30" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" s="80" t="s">
+        <v>223</v>
+      </c>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B31" s="67"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" s="75"/>
+      <c r="G31" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" s="80"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="67"/>
+      <c r="C32" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32" s="75"/>
+      <c r="G32" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H32" s="80"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B33" s="67"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="F33" s="75"/>
+      <c r="G33" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H33" s="80"/>
+      <c r="I33" s="15"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B34" s="67"/>
+      <c r="C34" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F34" s="75"/>
+      <c r="G34" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H34" s="80"/>
+      <c r="I34" s="15"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B35" s="67"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="F35" s="75"/>
+      <c r="G35" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H35" s="80"/>
+      <c r="I35" s="15"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B36" s="67"/>
+      <c r="C36" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F36" s="75"/>
+      <c r="G36" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36" s="80"/>
+      <c r="I36" s="15"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B37" s="67"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" s="75"/>
+      <c r="G37" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="H37" s="80"/>
+      <c r="I37" s="15"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B38" s="67"/>
+      <c r="C38" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" s="75"/>
+      <c r="G38" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H38" s="80"/>
+      <c r="I38" s="15"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B39" s="67"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F39" s="75"/>
+      <c r="G39" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="H39" s="80"/>
+      <c r="I39" s="15"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B40" s="67"/>
+      <c r="C40" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F40" s="75"/>
+      <c r="G40" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H40" s="80"/>
+      <c r="I40" s="15"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B41" s="67"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F41" s="75"/>
+      <c r="G41" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="H41" s="80"/>
+      <c r="I41" s="15"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B42" s="67"/>
+      <c r="C42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42" s="74"/>
+      <c r="G42" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="H42" s="80"/>
+      <c r="I42" s="15"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B43" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F43" s="43">
+        <v>15</v>
+      </c>
+      <c r="G43" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H43" s="79"/>
+      <c r="I43" s="15"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B44" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F44" s="43">
+        <v>5</v>
+      </c>
+      <c r="G44" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H44" s="79"/>
+      <c r="I44" s="15"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B45" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H45" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="I45" s="15"/>
+    </row>
+    <row r="46" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="72"/>
+      <c r="C46" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="H46" s="82"/>
+      <c r="I46" s="26"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F48" s="52"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F49" s="53"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F50" s="53"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:H46" xr:uid="{487A8692-191B-486E-8584-9C53CC415580}"/>
+  <mergeCells count="29">
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="F30:F42"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="H30:H42"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B42"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E9798B11-B56F-46E7-AD54-35C7F01246A1}">
+          <x14:formula1>
+            <xm:f>Values!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>G3:G46</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
@@ -2108,7 +3074,7 @@
         <v>64</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>21</v>
@@ -2127,14 +3093,14 @@
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="66" t="s">
         <v>133</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>79</v>
@@ -2146,60 +3112,60 @@
       <c r="H2" s="21"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="65"/>
-      <c r="C3" s="71" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="55" t="s">
         <v>87</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="22"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="65"/>
-      <c r="C4" s="71"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="60"/>
+      <c r="F4" s="55" t="s">
         <v>81</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="22"/>
     </row>
     <row r="5" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="65"/>
-      <c r="C5" s="68" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="69" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E5" s="66" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="55" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="22"/>
     </row>
     <row r="6" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B6" s="65"/>
-      <c r="C6" s="68"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="60"/>
+      <c r="F6" s="54" t="s">
         <v>85</v>
       </c>
       <c r="G6" s="1"/>
@@ -2211,13 +3177,13 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="65"/>
-      <c r="C7" s="68"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="60"/>
+      <c r="F7" s="54" t="s">
         <v>123</v>
       </c>
       <c r="G7" s="1"/>
@@ -2229,63 +3195,63 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B8" s="65"/>
-      <c r="C8" s="68" t="s">
+      <c r="B8" s="67"/>
+      <c r="C8" s="69" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E8" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="55" t="s">
         <v>82</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="2:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="B9" s="65"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="74" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" s="66"/>
-      <c r="F9" s="58" t="s">
+      <c r="B9" s="67"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="60"/>
+      <c r="F9" s="54" t="s">
         <v>74</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="73" t="s">
+      <c r="H9" s="62" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="65"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="58" t="s">
+      <c r="B10" s="67"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="54" t="s">
         <v>88</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="73"/>
+      <c r="H10" s="62"/>
       <c r="I10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="65"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="54" t="s">
         <v>83</v>
       </c>
       <c r="G11" s="1"/>
@@ -2295,77 +3261,77 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="87" x14ac:dyDescent="0.35">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="55" t="s">
         <v>61</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E12" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="55" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="61" t="s">
+      <c r="H12" s="57" t="s">
         <v>94</v>
       </c>
       <c r="J12" s="39"/>
     </row>
     <row r="13" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B13" s="65"/>
-      <c r="C13" s="59" t="s">
+      <c r="B13" s="67"/>
+      <c r="C13" s="55" t="s">
         <v>62</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="55" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="62"/>
+      <c r="H13" s="58"/>
     </row>
     <row r="14" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="65"/>
-      <c r="C14" s="59" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="E14" s="58" t="s">
+      <c r="D14" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="55" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="22"/>
     </row>
     <row r="15" spans="2:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="67" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>92</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="54" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="1"/>
@@ -2374,39 +3340,39 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="65"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="29" t="s">
         <v>98</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="58" t="s">
-        <v>223</v>
+      <c r="F16" s="54" t="s">
+        <v>221</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="28" t="s">
         <v>143</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="65"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="63" t="s">
-        <v>201</v>
+      <c r="D17" s="59" t="s">
+        <v>199</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="54" t="s">
         <v>99</v>
       </c>
       <c r="G17" s="1"/>
@@ -2415,130 +3381,130 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="67" t="s">
         <v>93</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>114</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="58" t="s">
+      <c r="F18" s="54" t="s">
         <v>101</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="61" t="s">
+      <c r="H18" s="57" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="65"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="12" t="s">
         <v>115</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="58" t="s">
+      <c r="F19" s="54" t="s">
         <v>101</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="61" t="s">
+      <c r="H19" s="57" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="B20" s="65"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="12" t="s">
         <v>113</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="58" t="s">
+      <c r="F20" s="54" t="s">
         <v>101</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="61"/>
+      <c r="H20" s="57"/>
     </row>
     <row r="21" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="65"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="12" t="s">
         <v>116</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="54" t="s">
         <v>101</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="61"/>
+      <c r="H21" s="57"/>
     </row>
     <row r="22" spans="1:8" ht="140" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="69"/>
-      <c r="B22" s="65" t="s">
+      <c r="A22" s="65"/>
+      <c r="B22" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="69" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E22" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="55" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="72" t="s">
+      <c r="H22" s="61" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="133" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="69"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="68"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E23" s="60"/>
+      <c r="F23" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="61"/>
+    </row>
+    <row r="24" spans="1:8" ht="137.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="65"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="72"/>
-    </row>
-    <row r="24" spans="1:8" ht="137.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="69"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="55" t="s">
         <v>24</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -2547,31 +3513,31 @@
       <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:8" ht="148" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="69"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="68"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E25" s="66"/>
-      <c r="F25" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" s="60"/>
+      <c r="F25" s="55" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8" ht="145" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="65"/>
-      <c r="C26" s="68" t="s">
+      <c r="B26" s="67"/>
+      <c r="C26" s="69" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E26" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="F26" s="59" t="s">
+      <c r="F26" s="55" t="s">
         <v>24</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -2580,30 +3546,30 @@
       <c r="H26" s="23"/>
     </row>
     <row r="27" spans="1:8" ht="151.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="65"/>
-      <c r="C27" s="68"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="E27" s="60"/>
+      <c r="F27" s="55" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="22"/>
     </row>
     <row r="28" spans="1:8" ht="73" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="65"/>
-      <c r="C28" s="66" t="s">
+      <c r="B28" s="67"/>
+      <c r="C28" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="E28" s="67" t="s">
+      <c r="D28" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="59" t="s">
+      <c r="F28" s="55" t="s">
         <v>24</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -2612,30 +3578,30 @@
       <c r="H28" s="22"/>
     </row>
     <row r="29" spans="1:8" ht="85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="65"/>
-      <c r="C29" s="66"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="E29" s="67"/>
-      <c r="F29" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" s="70"/>
+      <c r="F29" s="55" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="28"/>
     </row>
     <row r="30" spans="1:8" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="65"/>
-      <c r="C30" s="66" t="s">
+      <c r="B30" s="67"/>
+      <c r="C30" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="E30" s="67" t="s">
+      <c r="D30" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="59" t="s">
+      <c r="F30" s="55" t="s">
         <v>24</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -2644,30 +3610,30 @@
       <c r="H30" s="22"/>
     </row>
     <row r="31" spans="1:8" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="65"/>
-      <c r="C31" s="66"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="E31" s="67"/>
-      <c r="F31" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="E31" s="70"/>
+      <c r="F31" s="55" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="28"/>
     </row>
     <row r="32" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="65"/>
-      <c r="C32" s="66" t="s">
+      <c r="B32" s="67"/>
+      <c r="C32" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="E32" s="67" t="s">
+      <c r="D32" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="E32" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="59" t="s">
+      <c r="F32" s="55" t="s">
         <v>24</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -2676,13 +3642,13 @@
       <c r="H32" s="22"/>
     </row>
     <row r="33" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="65"/>
-      <c r="C33" s="66"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="60"/>
       <c r="D33" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="E33" s="67"/>
-      <c r="F33" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33" s="70"/>
+      <c r="F33" s="55" t="s">
         <v>14</v>
       </c>
       <c r="G33" s="1"/>
@@ -2691,17 +3657,17 @@
       </c>
     </row>
     <row r="34" spans="2:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="B34" s="65"/>
+      <c r="B34" s="67"/>
       <c r="C34" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E34" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="E34" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="59" t="s">
+      <c r="F34" s="55" t="s">
         <v>28</v>
       </c>
       <c r="G34" s="1"/>
@@ -2710,57 +3676,57 @@
       </c>
     </row>
     <row r="35" spans="2:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="63" t="s">
-        <v>219</v>
-      </c>
-      <c r="E35" s="58" t="s">
+      <c r="D35" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="E35" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="59" t="s">
+      <c r="F35" s="55" t="s">
         <v>26</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="22"/>
     </row>
     <row r="36" spans="2:8" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="58" t="s">
+      <c r="C36" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="E36" s="58" t="s">
+      <c r="D36" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="F36" s="59" t="s">
+      <c r="F36" s="55" t="s">
         <v>26</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="22"/>
     </row>
     <row r="37" spans="2:8" ht="174" x14ac:dyDescent="0.35">
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="E37" s="58" t="s">
-        <v>185</v>
-      </c>
-      <c r="F37" s="58" t="s">
+      <c r="D37" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="F37" s="54" t="s">
         <v>140</v>
       </c>
       <c r="G37" s="1"/>
@@ -2768,11 +3734,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C22:C23"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B2:B11"/>
@@ -2780,22 +3753,15 @@
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B22:B34"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="E22:E23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2807,906 +3773,6 @@
             <xm:f>Values!$B$2:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>I2:I37</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536CE806-BD74-41B7-8621-9DBCAF93F14E}">
-  <dimension ref="B1:I50"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" customWidth="1"/>
-    <col min="8" max="8" width="58.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:9" ht="37.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="64" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="F3" s="53">
-        <v>20</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="H3" s="54"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F4" s="78">
-        <v>6</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H4" s="44"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" s="44"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F6" s="78">
-        <v>30</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H6" s="44"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="65"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F7" s="80"/>
-      <c r="G7" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H7" s="44" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="65"/>
-      <c r="C8" s="81" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F8" s="80"/>
-      <c r="G8" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H8" s="44"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="65"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="80"/>
-      <c r="G9" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="H9" s="44" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="65"/>
-      <c r="C10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F10" s="80"/>
-      <c r="G10" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="H10" s="44" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="65"/>
-      <c r="C11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="H11" s="44" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="65" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F12" s="78">
-        <v>20</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H12" s="44"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="65"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="F13" s="80"/>
-      <c r="G13" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="H13" s="44" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="65"/>
-      <c r="C14" s="81" t="s">
-        <v>161</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F14" s="80"/>
-      <c r="G14" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H14" s="44"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="65"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="F15" s="80"/>
-      <c r="G15" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="H15" s="44" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="65"/>
-      <c r="C16" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="F16" s="80"/>
-      <c r="G16" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="H16" s="44"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="65"/>
-      <c r="C17" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F17" s="79"/>
-      <c r="G17" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="H17" s="44" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="65" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" s="68" t="s">
-        <v>165</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F18" s="43">
-        <v>30</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" s="44"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="65"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="H19" s="44"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F20" s="43">
-        <v>15</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H20" s="44"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="65"/>
-      <c r="C21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" s="44"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="65"/>
-      <c r="C22" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H22" s="44"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F23" s="43">
-        <v>25</v>
-      </c>
-      <c r="G23" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H23" s="44"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="65"/>
-      <c r="C24" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H24" s="44"/>
-    </row>
-    <row r="25" spans="2:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="B25" s="65"/>
-      <c r="C25" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E25" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H25" s="44"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B26" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F26" s="43">
-        <v>20</v>
-      </c>
-      <c r="G26" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H26" s="44"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B27" s="65"/>
-      <c r="C27" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H27" s="44"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B28" s="65"/>
-      <c r="C28" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H28" s="44"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B29" s="65"/>
-      <c r="C29" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H29" s="44"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B30" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="68" t="s">
-        <v>169</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E30" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F30" s="43">
-        <v>50</v>
-      </c>
-      <c r="G30" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H30" s="73" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B31" s="65"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E31" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="F31" s="45"/>
-      <c r="G31" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="H31" s="73"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B32" s="65"/>
-      <c r="C32" s="68" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H32" s="73"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B33" s="65"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="F33" s="45"/>
-      <c r="G33" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="H33" s="73"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34" s="65"/>
-      <c r="C34" s="68" t="s">
-        <v>172</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E34" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34" s="73"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B35" s="65"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="F35" s="45"/>
-      <c r="G35" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="H35" s="73"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B36" s="65"/>
-      <c r="C36" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="D36" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E36" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H36" s="73"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B37" s="65"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E37" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="F37" s="45"/>
-      <c r="G37" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="H37" s="73"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B38" s="65"/>
-      <c r="C38" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="D38" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E38" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H38" s="73"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B39" s="65"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E39" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="F39" s="45"/>
-      <c r="G39" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="H39" s="73"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B40" s="65"/>
-      <c r="C40" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="D40" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E40" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H40" s="73"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B41" s="65"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E41" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="F41" s="45"/>
-      <c r="G41" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="H41" s="73"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B42" s="65"/>
-      <c r="C42" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D42" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E42" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="F42" s="45"/>
-      <c r="G42" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="H42" s="73"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B43" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="D43" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E43" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F43" s="43">
-        <v>15</v>
-      </c>
-      <c r="G43" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H43" s="44"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B44" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="C44" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="D44" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E44" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F44" s="43">
-        <v>5</v>
-      </c>
-      <c r="G44" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H44" s="44"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B45" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D45" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E45" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="H45" s="72" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="76"/>
-      <c r="C46" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E46" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="H46" s="77"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="F48" s="56">
-        <f>SUM(F3:F46)</f>
-        <v>236</v>
-      </c>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F49" s="57">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F50" s="57">
-        <f>F48-F49</f>
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="B2:H46" xr:uid="{487A8692-191B-486E-8584-9C53CC415580}"/>
-  <mergeCells count="24">
-    <mergeCell ref="B30:B42"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="F12:F17"/>
-    <mergeCell ref="H30:H42"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B29"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E9798B11-B56F-46E7-AD54-35C7F01246A1}">
-          <x14:formula1>
-            <xm:f>Values!$B$2:$B$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>G3:G46</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
